--- a/Civilworks cost/Slope Protection/Output.xlsx
+++ b/Civilworks cost/Slope Protection/Output.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Slope Protection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -42,7 +37,7 @@
     <sheet name="KISH_PW_33" sheetId="28" r:id="rId28"/>
     <sheet name="KISH_PW_34" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -304,8 +299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,17 +352,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,14 +363,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -429,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,10 +441,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +475,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,16 +650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -742,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -753,7 +729,7 @@
         <v>19.59</v>
       </c>
       <c r="D3">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="E3">
         <v>510</v>
@@ -774,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -806,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -838,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -870,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -902,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -934,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -966,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -974,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>29.562000000000001</v>
+        <v>29.562</v>
       </c>
       <c r="D10">
         <v>30.012</v>
@@ -998,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1030,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1041,7 +1017,7 @@
         <v>33.875</v>
       </c>
       <c r="D12">
-        <v>33.924999999999997</v>
+        <v>33.925</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -1062,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1094,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1126,7 +1102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1134,10 +1110,10 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>38.715000000000003</v>
+        <v>38.715</v>
       </c>
       <c r="D15">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="E15">
         <v>85</v>
@@ -1158,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1169,7 +1145,7 @@
         <v>42.8</v>
       </c>
       <c r="D16">
-        <v>42.932000000000002</v>
+        <v>42.932</v>
       </c>
       <c r="E16">
         <v>132</v>
@@ -1190,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1198,7 +1174,7 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>43.975000000000001</v>
+        <v>43.975</v>
       </c>
       <c r="D17">
         <v>44</v>
@@ -1207,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="F17">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -1222,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1254,7 +1230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1265,7 +1241,7 @@
         <v>1.6</v>
       </c>
       <c r="D19">
-        <v>2.5049999999999999</v>
+        <v>2.505</v>
       </c>
       <c r="E19">
         <v>905</v>
@@ -1286,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1294,10 +1270,10 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>23.437000000000001</v>
+        <v>23.437</v>
       </c>
       <c r="D20">
-        <v>23.562000000000001</v>
+        <v>23.562</v>
       </c>
       <c r="E20">
         <v>125</v>
@@ -1318,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1350,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1382,7 +1358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1390,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>2.5049999999999999</v>
+        <v>2.505</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1420,14 +1396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1450,12 +1426,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.562000000000001</v>
+        <v>29.562</v>
       </c>
       <c r="C2">
         <v>26.5</v>
@@ -1476,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.577000000000002</v>
+        <v>29.577</v>
       </c>
       <c r="C3">
         <v>26.75</v>
@@ -1490,19 +1466,19 @@
         <v>2.35</v>
       </c>
       <c r="E3">
-        <v>2.3450000000000002</v>
+        <v>2.345</v>
       </c>
       <c r="F3">
         <v>15.00000000000057</v>
       </c>
       <c r="G3">
-        <v>35.175000000001333</v>
+        <v>35.17500000000133</v>
       </c>
       <c r="H3">
-        <v>35.175000000001333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.17500000000133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1519,16 +1495,16 @@
         <v>2.7</v>
       </c>
       <c r="F4">
-        <v>92.999999999999972</v>
+        <v>92.99999999999997</v>
       </c>
       <c r="G4">
-        <v>251.09999999999991</v>
+        <v>251.0999999999999</v>
       </c>
       <c r="H4">
-        <v>286.27500000000128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286.2750000000013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1545,21 +1521,21 @@
         <v>2.59</v>
       </c>
       <c r="F5">
-        <v>91.999999999998749</v>
+        <v>91.99999999999875</v>
       </c>
       <c r="G5">
-        <v>238.27999999999679</v>
+        <v>238.2799999999968</v>
       </c>
       <c r="H5">
-        <v>524.55499999999802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>524.554999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.853999999999999</v>
+        <v>29.854</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1568,19 +1544,19 @@
         <v>1.96</v>
       </c>
       <c r="E6">
-        <v>2.0449999999999999</v>
+        <v>2.045</v>
       </c>
       <c r="F6">
-        <v>91.999999999998749</v>
+        <v>91.99999999999875</v>
       </c>
       <c r="G6">
         <v>188.1399999999974</v>
       </c>
       <c r="H6">
-        <v>712.69499999999539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>712.6949999999954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1597,42 +1573,42 @@
         <v>1.5</v>
       </c>
       <c r="F7">
-        <v>96.000000000000085</v>
+        <v>96.00000000000009</v>
       </c>
       <c r="G7">
-        <v>144.00000000000011</v>
+        <v>144.0000000000001</v>
       </c>
       <c r="H7">
         <v>856.6949999999955</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.995999999999999</v>
+        <v>29.996</v>
       </c>
       <c r="C8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="D8">
         <v>0.23</v>
       </c>
       <c r="E8">
-        <v>0.63500000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="F8">
-        <v>45.999999999999368</v>
+        <v>45.99999999999937</v>
       </c>
       <c r="G8">
-        <v>29.209999999999599</v>
+        <v>29.2099999999996</v>
       </c>
       <c r="H8">
-        <v>885.90499999999508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>885.9049999999951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1640,7 +1616,7 @@
         <v>30.012</v>
       </c>
       <c r="C9">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="D9">
         <v>0.23</v>
@@ -1649,13 +1625,13 @@
         <v>0.23</v>
       </c>
       <c r="F9">
-        <v>16.000000000001791</v>
+        <v>16.00000000000179</v>
       </c>
       <c r="G9">
-        <v>3.6800000000004118</v>
+        <v>3.680000000000412</v>
       </c>
       <c r="H9">
-        <v>889.58499999999549</v>
+        <v>889.5849999999955</v>
       </c>
     </row>
   </sheetData>
@@ -1664,14 +1640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1702,7 +1678,7 @@
         <v>32.35</v>
       </c>
       <c r="C2">
-        <v>44.165999999999997</v>
+        <v>44.166</v>
       </c>
       <c r="D2">
         <v>3.19</v>
@@ -1720,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1737,50 +1713,50 @@
         <v>3.03</v>
       </c>
       <c r="F3">
-        <v>24.999999999998579</v>
+        <v>24.99999999999858</v>
       </c>
       <c r="G3">
-        <v>75.749999999995694</v>
+        <v>75.74999999999569</v>
       </c>
       <c r="H3">
-        <v>75.749999999995694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75.74999999999569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.454999999999998</v>
+        <v>32.455</v>
       </c>
       <c r="C4">
-        <v>36.020000000000003</v>
+        <v>36.02</v>
       </c>
       <c r="D4">
         <v>2.82</v>
       </c>
       <c r="E4">
-        <v>2.8450000000000002</v>
+        <v>2.845</v>
       </c>
       <c r="F4">
-        <v>79.999999999998295</v>
+        <v>79.99999999999829</v>
       </c>
       <c r="G4">
-        <v>227.59999999999511</v>
+        <v>227.5999999999951</v>
       </c>
       <c r="H4">
-        <v>303.34999999999081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303.3499999999908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.540999999999997</v>
+        <v>32.541</v>
       </c>
       <c r="C5">
-        <v>33.030999999999999</v>
+        <v>33.031</v>
       </c>
       <c r="D5">
         <v>2.68</v>
@@ -1789,16 +1765,16 @@
         <v>2.75</v>
       </c>
       <c r="F5">
-        <v>85.999999999998522</v>
+        <v>85.99999999999852</v>
       </c>
       <c r="G5">
-        <v>236.49999999999591</v>
+        <v>236.4999999999959</v>
       </c>
       <c r="H5">
-        <v>539.84999999998672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>539.8499999999867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1806,7 +1782,7 @@
         <v>32.65</v>
       </c>
       <c r="C6">
-        <v>33.030999999999999</v>
+        <v>33.031</v>
       </c>
       <c r="D6">
         <v>2.68</v>
@@ -1818,10 +1794,10 @@
         <v>109.0000000000018</v>
       </c>
       <c r="G6">
-        <v>292.12000000000472</v>
+        <v>292.1200000000047</v>
       </c>
       <c r="H6">
-        <v>831.96999999999139</v>
+        <v>831.9699999999914</v>
       </c>
     </row>
   </sheetData>
@@ -1830,14 +1806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1886,12 +1862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.924999999999997</v>
+        <v>33.925</v>
       </c>
       <c r="C3">
         <v>11.872</v>
@@ -1903,13 +1879,13 @@
         <v>1.4</v>
       </c>
       <c r="F3">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G3">
-        <v>69.999999999996021</v>
+        <v>69.99999999999602</v>
       </c>
       <c r="H3">
-        <v>69.999999999996021</v>
+        <v>69.99999999999602</v>
       </c>
     </row>
   </sheetData>
@@ -1918,14 +1894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,7 +1924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1974,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1982,25 +1958,25 @@
         <v>30.83</v>
       </c>
       <c r="C3">
-        <v>4.8170000000000002</v>
+        <v>4.817</v>
       </c>
       <c r="D3">
         <v>0.74</v>
       </c>
       <c r="E3">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="F3">
-        <v>79.999999999998295</v>
+        <v>79.99999999999829</v>
       </c>
       <c r="G3">
-        <v>89.599999999998104</v>
+        <v>89.5999999999981</v>
       </c>
       <c r="H3">
-        <v>89.599999999998104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89.5999999999981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2008,7 +1984,7 @@
         <v>30.904</v>
       </c>
       <c r="C4">
-        <v>5.0049999999999999</v>
+        <v>5.005</v>
       </c>
       <c r="D4">
         <v>0.76</v>
@@ -2020,47 +1996,47 @@
         <v>74.00000000000162</v>
       </c>
       <c r="G4">
-        <v>55.500000000001222</v>
+        <v>55.50000000000122</v>
       </c>
       <c r="H4">
-        <v>145.09999999999931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145.0999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.954000000000001</v>
+        <v>30.954</v>
       </c>
       <c r="C5">
-        <v>7.5910000000000002</v>
+        <v>7.591</v>
       </c>
       <c r="D5">
         <v>1.03</v>
       </c>
       <c r="E5">
-        <v>0.89500000000000002</v>
+        <v>0.895</v>
       </c>
       <c r="F5">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G5">
-        <v>44.750000000000639</v>
+        <v>44.75000000000064</v>
       </c>
       <c r="H5">
         <v>189.85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31.015000000000001</v>
+        <v>31.015</v>
       </c>
       <c r="C6">
-        <v>6.1740000000000004</v>
+        <v>6.174</v>
       </c>
       <c r="D6">
         <v>0.89</v>
@@ -2069,16 +2045,16 @@
         <v>0.96</v>
       </c>
       <c r="F6">
-        <v>60.999999999999943</v>
+        <v>60.99999999999994</v>
       </c>
       <c r="G6">
-        <v>58.559999999999953</v>
+        <v>58.55999999999995</v>
       </c>
       <c r="H6">
-        <v>248.40999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248.4099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2092,16 +2068,16 @@
         <v>1.7</v>
       </c>
       <c r="E7">
-        <v>1.2949999999999999</v>
+        <v>1.295</v>
       </c>
       <c r="F7">
-        <v>184.99999999999869</v>
+        <v>184.9999999999987</v>
       </c>
       <c r="G7">
-        <v>239.57499999999831</v>
+        <v>239.5749999999983</v>
       </c>
       <c r="H7">
-        <v>487.98499999999831</v>
+        <v>487.9849999999983</v>
       </c>
     </row>
   </sheetData>
@@ -2110,14 +2086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,7 +2116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2148,7 +2124,7 @@
         <v>31.5</v>
       </c>
       <c r="C2">
-        <v>8.1690000000000005</v>
+        <v>8.169</v>
       </c>
       <c r="D2">
         <v>1.08</v>
@@ -2166,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2174,13 +2150,13 @@
         <v>31.602</v>
       </c>
       <c r="C3">
-        <v>7.5679999999999996</v>
+        <v>7.568</v>
       </c>
       <c r="D3">
         <v>1.03</v>
       </c>
       <c r="E3">
-        <v>1.0549999999999999</v>
+        <v>1.055</v>
       </c>
       <c r="F3">
         <v>102.0000000000003</v>
@@ -2192,15 +2168,15 @@
         <v>107.6100000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.707999999999998</v>
+        <v>31.708</v>
       </c>
       <c r="C4">
-        <v>7.0369999999999999</v>
+        <v>7.037</v>
       </c>
       <c r="D4">
         <v>0.97</v>
@@ -2215,18 +2191,18 @@
         <v>105.9999999999981</v>
       </c>
       <c r="H4">
-        <v>213.60999999999839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213.6099999999984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.832000000000001</v>
+        <v>31.832</v>
       </c>
       <c r="C5">
-        <v>11.409000000000001</v>
+        <v>11.409</v>
       </c>
       <c r="D5">
         <v>1.36</v>
@@ -2238,13 +2214,13 @@
         <v>124.0000000000023</v>
       </c>
       <c r="G5">
-        <v>144.46000000000271</v>
+        <v>144.4600000000027</v>
       </c>
       <c r="H5">
-        <v>358.07000000000107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358.0700000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2252,7 +2228,7 @@
         <v>31.884</v>
       </c>
       <c r="C6">
-        <v>10.507999999999999</v>
+        <v>10.508</v>
       </c>
       <c r="D6">
         <v>1.29</v>
@@ -2261,7 +2237,7 @@
         <v>1.325</v>
       </c>
       <c r="F6">
-        <v>51.999999999999602</v>
+        <v>51.9999999999996</v>
       </c>
       <c r="G6">
         <v>68.89999999999948</v>
@@ -2270,7 +2246,7 @@
         <v>426.9700000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2287,24 +2263,24 @@
         <v>1.31</v>
       </c>
       <c r="F7">
-        <v>77.999999999999403</v>
+        <v>77.9999999999994</v>
       </c>
       <c r="G7">
         <v>102.1799999999992</v>
       </c>
       <c r="H7">
-        <v>529.14999999999986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>529.1499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.027999999999999</v>
+        <v>32.028</v>
       </c>
       <c r="C8">
-        <v>10.923999999999999</v>
+        <v>10.924</v>
       </c>
       <c r="D8">
         <v>1.32</v>
@@ -2313,24 +2289,24 @@
         <v>1.325</v>
       </c>
       <c r="F8">
-        <v>65.999999999998948</v>
+        <v>65.99999999999895</v>
       </c>
       <c r="G8">
-        <v>87.449999999998624</v>
+        <v>87.44999999999862</v>
       </c>
       <c r="H8">
-        <v>616.59999999999854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>616.5999999999985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.106000000000002</v>
+        <v>32.106</v>
       </c>
       <c r="C9">
-        <v>28.713999999999999</v>
+        <v>28.714</v>
       </c>
       <c r="D9">
         <v>2.46</v>
@@ -2339,36 +2315,36 @@
         <v>1.89</v>
       </c>
       <c r="F9">
-        <v>78.000000000002956</v>
+        <v>78.00000000000296</v>
       </c>
       <c r="G9">
-        <v>147.42000000000559</v>
+        <v>147.4200000000056</v>
       </c>
       <c r="H9">
-        <v>764.02000000000407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>764.0200000000041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="C10">
-        <v>41.423999999999999</v>
+        <v>41.424</v>
       </c>
       <c r="D10">
         <v>3.07</v>
       </c>
       <c r="E10">
-        <v>2.7650000000000001</v>
+        <v>2.765</v>
       </c>
       <c r="F10">
-        <v>94.000000000001194</v>
+        <v>94.00000000000119</v>
       </c>
       <c r="G10">
-        <v>259.91000000000332</v>
+        <v>259.9100000000033</v>
       </c>
       <c r="H10">
         <v>1023.930000000007</v>
@@ -2380,14 +2356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2410,15 +2386,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38.715000000000003</v>
+        <v>38.715</v>
       </c>
       <c r="C2">
-        <v>35.976999999999997</v>
+        <v>35.977</v>
       </c>
       <c r="D2">
         <v>2.82</v>
@@ -2436,12 +2412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="C3">
         <v>26.631</v>
@@ -2453,13 +2429,13 @@
         <v>2.585</v>
       </c>
       <c r="F3">
-        <v>84.999999999993747</v>
+        <v>84.99999999999375</v>
       </c>
       <c r="G3">
-        <v>219.72499999998379</v>
+        <v>219.7249999999838</v>
       </c>
       <c r="H3">
-        <v>219.72499999998379</v>
+        <v>219.7249999999838</v>
       </c>
     </row>
   </sheetData>
@@ -2468,14 +2444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2498,7 +2474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2524,12 +2500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42.932000000000002</v>
+        <v>42.932</v>
       </c>
       <c r="C3">
         <v>13.846</v>
@@ -2544,10 +2520,10 @@
         <v>132.000000000005</v>
       </c>
       <c r="G3">
-        <v>204.60000000000781</v>
+        <v>204.6000000000078</v>
       </c>
       <c r="H3">
-        <v>204.60000000000781</v>
+        <v>204.6000000000078</v>
       </c>
     </row>
   </sheetData>
@@ -2556,14 +2532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,15 +2562,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43.975000000000001</v>
+        <v>43.975</v>
       </c>
       <c r="C2">
-        <v>29.492000000000001</v>
+        <v>29.492</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2612,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2620,22 +2596,22 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <v>28.885999999999999</v>
+        <v>28.886</v>
       </c>
       <c r="D3">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="E3">
-        <v>2.4849999999999999</v>
+        <v>2.485</v>
       </c>
       <c r="F3">
-        <v>24.999999999998579</v>
+        <v>24.99999999999858</v>
       </c>
       <c r="G3">
-        <v>62.124999999996483</v>
+        <v>62.12499999999648</v>
       </c>
       <c r="H3">
-        <v>62.124999999996483</v>
+        <v>62.12499999999648</v>
       </c>
     </row>
   </sheetData>
@@ -2644,14 +2620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2674,7 +2650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2700,12 +2676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.2689999999999999</v>
+        <v>1.269</v>
       </c>
       <c r="C3">
         <v>23.29</v>
@@ -2714,19 +2690,19 @@
         <v>2.16</v>
       </c>
       <c r="E3">
-        <v>2.0249999999999999</v>
+        <v>2.025</v>
       </c>
       <c r="F3">
-        <v>28.999999999999911</v>
+        <v>28.99999999999991</v>
       </c>
       <c r="G3">
-        <v>58.724999999999817</v>
+        <v>58.72499999999982</v>
       </c>
       <c r="H3">
-        <v>58.724999999999817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58.72499999999982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2743,10 +2719,10 @@
         <v>1.98</v>
       </c>
       <c r="F4">
-        <v>31.000000000000139</v>
+        <v>31.00000000000014</v>
       </c>
       <c r="G4">
-        <v>61.380000000000273</v>
+        <v>61.38000000000027</v>
       </c>
       <c r="H4">
         <v>120.1050000000001</v>
@@ -2758,14 +2734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2788,7 +2764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2814,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2840,7 +2816,7 @@
         <v>225.7199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2857,21 +2833,21 @@
         <v>1.885</v>
       </c>
       <c r="F4">
-        <v>74.000000000000071</v>
+        <v>74.00000000000007</v>
       </c>
       <c r="G4">
-        <v>139.49000000000009</v>
+        <v>139.4900000000001</v>
       </c>
       <c r="H4">
-        <v>365.20999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>365.2099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9370000000000001</v>
+        <v>1.937</v>
       </c>
       <c r="C5">
         <v>42.22</v>
@@ -2880,19 +2856,19 @@
         <v>3.1</v>
       </c>
       <c r="E5">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="F5">
         <v>149</v>
       </c>
       <c r="G5">
-        <v>345.68000000000012</v>
+        <v>345.6800000000001</v>
       </c>
       <c r="H5">
         <v>710.8900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2900,25 +2876,25 @@
         <v>2.016</v>
       </c>
       <c r="C6">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="D6">
         <v>2.99</v>
       </c>
       <c r="E6">
-        <v>3.0449999999999999</v>
+        <v>3.045</v>
       </c>
       <c r="F6">
-        <v>78.999999999999957</v>
+        <v>78.99999999999996</v>
       </c>
       <c r="G6">
-        <v>240.55499999999989</v>
+        <v>240.5549999999999</v>
       </c>
       <c r="H6">
-        <v>951.44499999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>951.4449999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2926,7 +2902,7 @@
         <v>2.339</v>
       </c>
       <c r="C7">
-        <v>40.659999999999997</v>
+        <v>40.66</v>
       </c>
       <c r="D7">
         <v>3.03</v>
@@ -2935,21 +2911,21 @@
         <v>3.01</v>
       </c>
       <c r="F7">
-        <v>322.99999999999989</v>
+        <v>322.9999999999999</v>
       </c>
       <c r="G7">
-        <v>972.22999999999979</v>
+        <v>972.2299999999998</v>
       </c>
       <c r="H7">
         <v>1923.675</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.3719999999999999</v>
+        <v>2.372</v>
       </c>
       <c r="C8">
         <v>38.22</v>
@@ -2958,19 +2934,19 @@
         <v>2.92</v>
       </c>
       <c r="E8">
-        <v>2.9750000000000001</v>
+        <v>2.975</v>
       </c>
       <c r="F8">
-        <v>32.999999999999908</v>
+        <v>32.99999999999991</v>
       </c>
       <c r="G8">
-        <v>98.174999999999741</v>
+        <v>98.17499999999974</v>
       </c>
       <c r="H8">
         <v>2021.849999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2981,27 +2957,27 @@
         <v>25.38</v>
       </c>
       <c r="D9">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="E9">
         <v>2.6</v>
       </c>
       <c r="F9">
-        <v>88.000000000000085</v>
+        <v>88.00000000000009</v>
       </c>
       <c r="G9">
-        <v>228.80000000000021</v>
+        <v>228.8000000000002</v>
       </c>
       <c r="H9">
         <v>2250.65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.5049999999999999</v>
+        <v>2.505</v>
       </c>
       <c r="C10">
         <v>50.01</v>
@@ -3013,7 +2989,7 @@
         <v>2.855</v>
       </c>
       <c r="F10">
-        <v>44.999999999999929</v>
+        <v>44.99999999999993</v>
       </c>
       <c r="G10">
         <v>128.4749999999998</v>
@@ -3028,14 +3004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3058,7 +3034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3084,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3095,22 +3071,22 @@
         <v>69.09</v>
       </c>
       <c r="D3">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="E3">
-        <v>2.9249999999999998</v>
+        <v>2.925</v>
       </c>
       <c r="F3">
-        <v>9.9999999999997868</v>
+        <v>9.999999999999787</v>
       </c>
       <c r="G3">
-        <v>29.249999999999371</v>
+        <v>29.24999999999937</v>
       </c>
       <c r="H3">
-        <v>29.249999999999371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29.24999999999937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3124,19 +3100,19 @@
         <v>3.31</v>
       </c>
       <c r="E4">
-        <v>3.7250000000000001</v>
+        <v>3.725</v>
       </c>
       <c r="F4">
-        <v>9.9999999999997868</v>
+        <v>9.999999999999787</v>
       </c>
       <c r="G4">
-        <v>37.249999999999197</v>
+        <v>37.2499999999992</v>
       </c>
       <c r="H4">
-        <v>66.499999999998579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66.49999999999858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3147,7 +3123,7 @@
         <v>5.43</v>
       </c>
       <c r="D5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5">
         <v>2.06</v>
@@ -3156,13 +3132,13 @@
         <v>20.00000000000135</v>
       </c>
       <c r="G5">
-        <v>41.200000000002781</v>
+        <v>41.20000000000278</v>
       </c>
       <c r="H5">
         <v>107.7000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3176,10 +3152,10 @@
         <v>1.07</v>
       </c>
       <c r="E6">
-        <v>0.94000000000000006</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F6">
-        <v>10.999999999999231</v>
+        <v>10.99999999999923</v>
       </c>
       <c r="G6">
         <v>10.33999999999928</v>
@@ -3194,14 +3170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3224,12 +3200,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.437000000000001</v>
+        <v>23.437</v>
       </c>
       <c r="C2">
         <v>10.903</v>
@@ -3250,21 +3226,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.562000000000001</v>
+        <v>23.562</v>
       </c>
       <c r="C3">
-        <v>8.0357000000000003</v>
+        <v>8.0357</v>
       </c>
       <c r="D3">
         <v>1.07</v>
       </c>
       <c r="E3">
-        <v>1.1950000000000001</v>
+        <v>1.195</v>
       </c>
       <c r="F3">
         <v>125</v>
@@ -3282,14 +3258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3312,7 +3288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3338,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3355,7 +3331,7 @@
         <v>1.22</v>
       </c>
       <c r="F3">
-        <v>40.000000000000043</v>
+        <v>40.00000000000004</v>
       </c>
       <c r="G3">
         <v>48.80000000000004</v>
@@ -3364,7 +3340,7 @@
         <v>48.80000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3372,7 +3348,7 @@
         <v>1.04</v>
       </c>
       <c r="C4">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D4">
         <v>1.2</v>
@@ -3390,7 +3366,7 @@
         <v>219.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3407,16 +3383,16 @@
         <v>1.54</v>
       </c>
       <c r="F5">
-        <v>129.99999999999989</v>
+        <v>129.9999999999999</v>
       </c>
       <c r="G5">
-        <v>200.19999999999979</v>
+        <v>200.1999999999998</v>
       </c>
       <c r="H5">
-        <v>419.99999999999977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419.9999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3433,13 +3409,13 @@
         <v>1.94</v>
       </c>
       <c r="F6">
-        <v>70.000000000000057</v>
+        <v>70.00000000000006</v>
       </c>
       <c r="G6">
         <v>135.8000000000001</v>
       </c>
       <c r="H6">
-        <v>555.79999999999995</v>
+        <v>555.8</v>
       </c>
     </row>
   </sheetData>
@@ -3448,14 +3424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3478,7 +3454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3504,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3521,24 +3497,24 @@
         <v>1.66</v>
       </c>
       <c r="F3">
-        <v>89.999999999999858</v>
+        <v>89.99999999999986</v>
       </c>
       <c r="G3">
-        <v>149.39999999999981</v>
+        <v>149.3999999999998</v>
       </c>
       <c r="H3">
-        <v>149.39999999999981</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149.3999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5780000000000001</v>
+        <v>1.578</v>
       </c>
       <c r="C4">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="D4">
         <v>2.64</v>
@@ -3550,13 +3526,13 @@
         <v>188.0000000000002</v>
       </c>
       <c r="G4">
-        <v>372.24000000000041</v>
+        <v>372.2400000000004</v>
       </c>
       <c r="H4">
         <v>521.6400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3573,13 +3549,13 @@
         <v>2.57</v>
       </c>
       <c r="F5">
-        <v>22.000000000000021</v>
+        <v>22.00000000000002</v>
       </c>
       <c r="G5">
-        <v>56.540000000000063</v>
+        <v>56.54000000000006</v>
       </c>
       <c r="H5">
-        <v>578.18000000000018</v>
+        <v>578.1800000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3588,14 +3564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3618,12 +3594,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.5049999999999999</v>
+        <v>2.505</v>
       </c>
       <c r="C2">
         <v>27.91</v>
@@ -3644,33 +3620,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.6469999999999998</v>
+        <v>2.647</v>
       </c>
       <c r="C3">
         <v>30.56</v>
       </c>
       <c r="D3">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="E3">
-        <v>2.4849999999999999</v>
+        <v>2.485</v>
       </c>
       <c r="F3">
-        <v>141.99999999999989</v>
+        <v>141.9999999999999</v>
       </c>
       <c r="G3">
-        <v>352.86999999999978</v>
+        <v>352.8699999999998</v>
       </c>
       <c r="H3">
-        <v>352.86999999999978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352.8699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3693,10 +3669,10 @@
         <v>256.51</v>
       </c>
       <c r="H4">
-        <v>609.37999999999977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>609.3799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3707,10 +3683,10 @@
         <v>26.14</v>
       </c>
       <c r="D5">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="E5">
-        <v>2.1549999999999998</v>
+        <v>2.155</v>
       </c>
       <c r="F5">
         <v>100.0000000000001</v>
@@ -3719,15 +3695,15 @@
         <v>215.5000000000002</v>
       </c>
       <c r="H5">
-        <v>824.87999999999988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>824.8799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.9460000000000002</v>
+        <v>2.946</v>
       </c>
       <c r="C6">
         <v>29.19</v>
@@ -3739,16 +3715,16 @@
         <v>2.4</v>
       </c>
       <c r="F6">
-        <v>86.000000000000298</v>
+        <v>86.0000000000003</v>
       </c>
       <c r="G6">
-        <v>206.40000000000069</v>
+        <v>206.4000000000007</v>
       </c>
       <c r="H6">
-        <v>1031.2800000000011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1031.280000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3762,13 +3738,13 @@
         <v>2.42</v>
       </c>
       <c r="E7">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="F7">
-        <v>53.999999999999829</v>
+        <v>53.99999999999983</v>
       </c>
       <c r="G7">
-        <v>132.29999999999961</v>
+        <v>132.2999999999996</v>
       </c>
       <c r="H7">
         <v>1163.58</v>
@@ -3780,14 +3756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3867,7 +3843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3950,7 +3926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3967,7 +3943,7 @@
         <v>429.88</v>
       </c>
       <c r="F3">
-        <v>487.30500000000001</v>
+        <v>487.305</v>
       </c>
       <c r="G3">
         <v>1313.76</v>
@@ -3976,7 +3952,7 @@
         <v>3843.28</v>
       </c>
       <c r="I3">
-        <v>2127.3000000000002</v>
+        <v>2127.3</v>
       </c>
       <c r="J3">
         <v>2392.42</v>
@@ -3988,7 +3964,7 @@
         <v>2575.81</v>
       </c>
       <c r="M3">
-        <v>1893.2070000000001</v>
+        <v>1893.207</v>
       </c>
       <c r="N3">
         <v>3204.45</v>
@@ -3997,28 +3973,28 @@
         <v>4047.9</v>
       </c>
       <c r="P3">
-        <v>181.72499999999999</v>
+        <v>181.725</v>
       </c>
       <c r="Q3">
-        <v>964.34999999999991</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="R3">
-        <v>3356.2249999999999</v>
+        <v>3356.225</v>
       </c>
       <c r="S3">
         <v>1002.1075</v>
       </c>
       <c r="T3">
-        <v>586.01400000000001</v>
+        <v>586.014</v>
       </c>
       <c r="U3">
-        <v>275.51249999999999</v>
+        <v>275.5125</v>
       </c>
       <c r="V3">
         <v>435.54</v>
       </c>
       <c r="W3">
-        <v>11065.887500000001</v>
+        <v>11065.8875</v>
       </c>
       <c r="X3">
         <v>333.3125</v>
@@ -4030,10 +4006,10 @@
         <v>2034.15</v>
       </c>
       <c r="AA3">
-        <v>4886.8874999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4886.8875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4047,10 +4023,10 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>157.69999999999999</v>
+        <v>157.7</v>
       </c>
       <c r="F4">
-        <v>487.30500000000001</v>
+        <v>487.305</v>
       </c>
       <c r="G4">
         <v>1313.76</v>
@@ -4059,7 +4035,7 @@
         <v>3843.28</v>
       </c>
       <c r="I4">
-        <v>2127.3000000000002</v>
+        <v>2127.3</v>
       </c>
       <c r="J4">
         <v>2392.42</v>
@@ -4071,7 +4047,7 @@
         <v>2575.81</v>
       </c>
       <c r="M4">
-        <v>1893.2070000000001</v>
+        <v>1893.207</v>
       </c>
       <c r="N4">
         <v>3204.45</v>
@@ -4080,28 +4056,28 @@
         <v>4047.9</v>
       </c>
       <c r="P4">
-        <v>181.72499999999999</v>
+        <v>181.725</v>
       </c>
       <c r="Q4">
-        <v>964.34999999999991</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="R4">
-        <v>3356.2249999999999</v>
+        <v>3356.225</v>
       </c>
       <c r="S4">
         <v>1002.1075</v>
       </c>
       <c r="T4">
-        <v>586.01400000000001</v>
+        <v>586.014</v>
       </c>
       <c r="U4">
-        <v>275.51249999999999</v>
+        <v>275.5125</v>
       </c>
       <c r="V4">
         <v>435.54</v>
       </c>
       <c r="W4">
-        <v>11065.887500000001</v>
+        <v>11065.8875</v>
       </c>
       <c r="X4">
         <v>333.3125</v>
@@ -4113,10 +4089,10 @@
         <v>2034.15</v>
       </c>
       <c r="AA4">
-        <v>4886.8874999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4886.8875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4133,7 +4109,7 @@
         <v>16.97</v>
       </c>
       <c r="F5">
-        <v>487.30500000000001</v>
+        <v>487.305</v>
       </c>
       <c r="G5">
         <v>1313.76</v>
@@ -4142,7 +4118,7 @@
         <v>3843.28</v>
       </c>
       <c r="I5">
-        <v>2127.3000000000002</v>
+        <v>2127.3</v>
       </c>
       <c r="J5">
         <v>2392.42</v>
@@ -4154,7 +4130,7 @@
         <v>2575.81</v>
       </c>
       <c r="M5">
-        <v>1893.2070000000001</v>
+        <v>1893.207</v>
       </c>
       <c r="N5">
         <v>3204.45</v>
@@ -4163,28 +4139,28 @@
         <v>4047.9</v>
       </c>
       <c r="P5">
-        <v>181.72499999999999</v>
+        <v>181.725</v>
       </c>
       <c r="Q5">
-        <v>964.34999999999991</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="R5">
-        <v>3356.2249999999999</v>
+        <v>3356.225</v>
       </c>
       <c r="S5">
         <v>1002.1075</v>
       </c>
       <c r="T5">
-        <v>586.01400000000001</v>
+        <v>586.014</v>
       </c>
       <c r="U5">
-        <v>275.51249999999999</v>
+        <v>275.5125</v>
       </c>
       <c r="V5">
         <v>435.54</v>
       </c>
       <c r="W5">
-        <v>11065.887500000001</v>
+        <v>11065.8875</v>
       </c>
       <c r="X5">
         <v>333.3125</v>
@@ -4196,10 +4172,10 @@
         <v>2034.15</v>
       </c>
       <c r="AA5">
-        <v>4886.8874999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4886.8875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4216,22 +4192,22 @@
         <v>1267.96</v>
       </c>
       <c r="F6">
-        <v>85.136623213371763</v>
+        <v>85.13662321337176</v>
       </c>
       <c r="G6">
         <v>486.8692321337175</v>
       </c>
       <c r="H6">
-        <v>1196.7710195877719</v>
+        <v>1196.771019587772</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>772.00170937049199</v>
+        <v>772.001709370492</v>
       </c>
       <c r="K6">
-        <v>145.43455532033681</v>
+        <v>145.4345553203368</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4240,13 +4216,13 @@
         <v>401.1860460033497</v>
       </c>
       <c r="N6">
-        <v>657.29049894151535</v>
+        <v>657.2904989415154</v>
       </c>
       <c r="O6">
-        <v>588.07366596101031</v>
+        <v>588.0736659610103</v>
       </c>
       <c r="P6">
-        <v>54.692277660168372</v>
+        <v>54.69227766016837</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -4264,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>88.394733192202068</v>
+        <v>88.39473319220207</v>
       </c>
       <c r="W6">
-        <v>1693.9297256490479</v>
+        <v>1693.929725649048</v>
       </c>
       <c r="X6">
         <v>120.9181941504209</v>
@@ -4282,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4299,19 +4275,19 @@
         <v>250.13</v>
       </c>
       <c r="F7">
-        <v>970.32146426743486</v>
+        <v>970.3214642674349</v>
       </c>
       <c r="G7">
         <v>6058.24464267435</v>
       </c>
       <c r="H7">
-        <v>14580.060391755431</v>
+        <v>14580.06039175543</v>
       </c>
       <c r="I7">
-        <v>8608.6450000000004</v>
+        <v>8608.645</v>
       </c>
       <c r="J7">
-        <v>9446.0341874098413</v>
+        <v>9446.034187409841</v>
       </c>
       <c r="K7">
         <v>1687.591106406735</v>
@@ -4323,49 +4299,49 @@
         <v>4669.612920066993</v>
       </c>
       <c r="N7">
-        <v>7622.5099788303078</v>
+        <v>7622.509978830308</v>
       </c>
       <c r="O7">
-        <v>6580.4733192202048</v>
+        <v>6580.473319220205</v>
       </c>
       <c r="P7">
         <v>663.5455532033676</v>
       </c>
       <c r="Q7">
-        <v>4964.9189999999999</v>
+        <v>4964.919</v>
       </c>
       <c r="R7">
-        <v>11421.012000000001</v>
+        <v>11421.012</v>
       </c>
       <c r="S7">
-        <v>1744.1990000000001</v>
+        <v>1744.199</v>
       </c>
       <c r="T7">
         <v>1848.752</v>
       </c>
       <c r="U7">
-        <v>498.76900000000001</v>
+        <v>498.769</v>
       </c>
       <c r="V7">
         <v>1023.894663844041</v>
       </c>
       <c r="W7">
-        <v>19050.169512980949</v>
+        <v>19050.16951298095</v>
       </c>
       <c r="X7">
         <v>1500.738883008419</v>
       </c>
       <c r="Y7">
-        <v>5019.2809999999999</v>
+        <v>5019.281</v>
       </c>
       <c r="Z7">
-        <v>4922.7079999999996</v>
+        <v>4922.708</v>
       </c>
       <c r="AA7">
-        <v>9437.3430000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9437.343000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4382,19 +4358,19 @@
         <v>5771.61</v>
       </c>
       <c r="F8">
-        <v>44.314700516458771</v>
+        <v>44.31470051645877</v>
       </c>
       <c r="G8">
-        <v>260.89850516458768</v>
+        <v>260.8985051645877</v>
       </c>
       <c r="H8">
-        <v>636.73757996929066</v>
+        <v>636.7375799692907</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>411.34061533685281</v>
+        <v>411.3406153368528</v>
       </c>
       <c r="K8">
         <v>76.14156964011525</v>
@@ -4403,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>210.24952638512499</v>
+        <v>210.249526385125</v>
       </c>
       <c r="N8">
-        <v>344.05456338051857</v>
+        <v>344.0545633805186</v>
       </c>
       <c r="O8">
-        <v>304.30970892034571</v>
+        <v>304.3097089203457</v>
       </c>
       <c r="P8">
-        <v>29.058284820057619</v>
+        <v>29.05828482005762</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4430,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>46.251941784069153</v>
+        <v>46.25194178406915</v>
       </c>
       <c r="W8">
-        <v>877.95470524304301</v>
+        <v>877.954705243043</v>
       </c>
       <c r="X8">
-        <v>64.739462050144056</v>
+        <v>64.73946205014406</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -4448,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4465,19 +4441,19 @@
         <v>6135.23</v>
       </c>
       <c r="F9">
-        <v>44.314700516458771</v>
+        <v>44.31470051645877</v>
       </c>
       <c r="G9">
-        <v>260.89850516458768</v>
+        <v>260.8985051645877</v>
       </c>
       <c r="H9">
-        <v>636.73757996929066</v>
+        <v>636.7375799692907</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>411.34061533685281</v>
+        <v>411.3406153368528</v>
       </c>
       <c r="K9">
         <v>76.14156964011525</v>
@@ -4486,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>210.24952638512499</v>
+        <v>210.249526385125</v>
       </c>
       <c r="N9">
-        <v>344.05456338051857</v>
+        <v>344.0545633805186</v>
       </c>
       <c r="O9">
-        <v>304.30970892034571</v>
+        <v>304.3097089203457</v>
       </c>
       <c r="P9">
-        <v>29.058284820057619</v>
+        <v>29.05828482005762</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4513,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>46.251941784069153</v>
+        <v>46.25194178406915</v>
       </c>
       <c r="W9">
-        <v>877.95470524304301</v>
+        <v>877.954705243043</v>
       </c>
       <c r="X9">
-        <v>64.739462050144056</v>
+        <v>64.73946205014406</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -4531,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4614,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4697,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4735,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>569.07600000000002</v>
+        <v>569.076</v>
       </c>
       <c r="N12">
         <v>922.5</v>
@@ -4744,7 +4720,7 @@
         <v>759</v>
       </c>
       <c r="P12">
-        <v>82.504999999999995</v>
+        <v>82.505</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4765,7 +4741,7 @@
         <v>123</v>
       </c>
       <c r="W12">
-        <v>2217.2550000000001</v>
+        <v>2217.255</v>
       </c>
       <c r="X12">
         <v>192.255</v>
@@ -4780,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4818,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>569.07600000000002</v>
+        <v>569.076</v>
       </c>
       <c r="N13">
         <v>922.5</v>
@@ -4827,7 +4803,7 @@
         <v>759</v>
       </c>
       <c r="P13">
-        <v>82.504999999999995</v>
+        <v>82.505</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4848,7 +4824,7 @@
         <v>123</v>
       </c>
       <c r="W13">
-        <v>2217.2550000000001</v>
+        <v>2217.255</v>
       </c>
       <c r="X13">
         <v>192.255</v>
@@ -4863,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4946,7 +4922,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4984,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.920000000000002</v>
+        <v>16.92</v>
       </c>
       <c r="N15">
         <v>27</v>
@@ -5029,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5055,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8676.8019999999997</v>
+        <v>8676.802</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5079,19 +5055,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5008.7340000000004</v>
+        <v>5008.734</v>
       </c>
       <c r="R16">
-        <v>11503.772999999999</v>
+        <v>11503.773</v>
       </c>
       <c r="S16">
-        <v>1752.4749999999999</v>
+        <v>1752.475</v>
       </c>
       <c r="T16">
         <v>1861.604</v>
       </c>
       <c r="U16">
-        <v>501.20400000000001</v>
+        <v>501.204</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -5103,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>5054.3329999999996</v>
+        <v>5054.333</v>
       </c>
       <c r="Z16">
-        <v>4951.9179999999997</v>
+        <v>4951.918</v>
       </c>
       <c r="AA16">
-        <v>9485.5390000000007</v>
+        <v>9485.539000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5118,19 +5094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5162,7 +5133,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5197,7 +5168,7 @@
         <v>29760.21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5214,7 +5185,7 @@
         <v>429.88</v>
       </c>
       <c r="F3">
-        <v>487.30500000000001</v>
+        <v>487.305</v>
       </c>
       <c r="G3">
         <v>1313.76</v>
@@ -5223,16 +5194,16 @@
         <v>3843.28</v>
       </c>
       <c r="I3">
-        <v>2127.3000000000002</v>
+        <v>2127.3</v>
       </c>
       <c r="J3">
-        <v>7771.6450000000004</v>
+        <v>7771.645</v>
       </c>
       <c r="K3">
-        <v>3340874.7525999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3340874.7526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5246,10 +5217,10 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>157.69999999999999</v>
+        <v>157.7</v>
       </c>
       <c r="F4">
-        <v>487.30500000000001</v>
+        <v>487.305</v>
       </c>
       <c r="G4">
         <v>1313.76</v>
@@ -5258,16 +5229,16 @@
         <v>3843.28</v>
       </c>
       <c r="I4">
-        <v>2127.3000000000002</v>
+        <v>2127.3</v>
       </c>
       <c r="J4">
-        <v>7771.6450000000004</v>
+        <v>7771.645</v>
       </c>
       <c r="K4">
-        <v>1225588.4165000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1225588.4165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5284,7 +5255,7 @@
         <v>16.97</v>
       </c>
       <c r="F5">
-        <v>487.30500000000001</v>
+        <v>487.305</v>
       </c>
       <c r="G5">
         <v>1313.76</v>
@@ -5293,16 +5264,16 @@
         <v>3843.28</v>
       </c>
       <c r="I5">
-        <v>2127.3000000000002</v>
+        <v>2127.3</v>
       </c>
       <c r="J5">
-        <v>7771.6450000000004</v>
+        <v>7771.645</v>
       </c>
       <c r="K5">
         <v>131884.81565</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5319,25 +5290,25 @@
         <v>1267.96</v>
       </c>
       <c r="F6">
-        <v>85.136623213371763</v>
+        <v>85.13662321337176</v>
       </c>
       <c r="G6">
         <v>486.8692321337175</v>
       </c>
       <c r="H6">
-        <v>1196.7710195877719</v>
+        <v>1196.771019587772</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1768.7768749348611</v>
+        <v>1768.776874934861</v>
       </c>
       <c r="K6">
-        <v>2242738.3263424062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2242738.326342406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5354,25 +5325,25 @@
         <v>250.13</v>
       </c>
       <c r="F7">
-        <v>970.32146426743486</v>
+        <v>970.3214642674349</v>
       </c>
       <c r="G7">
         <v>6058.24464267435</v>
       </c>
       <c r="H7">
-        <v>14580.060391755431</v>
+        <v>14580.06039175543</v>
       </c>
       <c r="I7">
-        <v>8608.6450000000004</v>
+        <v>8608.645</v>
       </c>
       <c r="J7">
-        <v>30217.271498697221</v>
+        <v>30217.27149869722</v>
       </c>
       <c r="K7">
-        <v>7558246.1199691361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7558246.119969136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5389,25 +5360,25 @@
         <v>5771.61</v>
       </c>
       <c r="F8">
-        <v>44.314700516458771</v>
+        <v>44.31470051645877</v>
       </c>
       <c r="G8">
-        <v>260.89850516458768</v>
+        <v>260.8985051645877</v>
       </c>
       <c r="H8">
-        <v>636.73757996929066</v>
+        <v>636.7375799692907</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>941.95078565033714</v>
+        <v>941.9507856503371</v>
       </c>
       <c r="K8">
-        <v>5436572.5739673423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5436572.573967342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5424,25 +5395,25 @@
         <v>6135.23</v>
       </c>
       <c r="F9">
-        <v>44.314700516458771</v>
+        <v>44.31470051645877</v>
       </c>
       <c r="G9">
-        <v>260.89850516458768</v>
+        <v>260.8985051645877</v>
       </c>
       <c r="H9">
-        <v>636.73757996929066</v>
+        <v>636.7375799692907</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>941.95078565033714</v>
+        <v>941.9507856503371</v>
       </c>
       <c r="K9">
-        <v>5779084.7186455177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5779084.718645518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5474,10 +5445,10 @@
         <v>124443</v>
       </c>
       <c r="K10">
-        <v>56911517.189999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56911517.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5512,7 +5483,7 @@
         <v>38340143.82</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5544,10 +5515,10 @@
         <v>2747.547</v>
       </c>
       <c r="K12">
-        <v>3832910.4914099998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3832910.49141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5579,10 +5550,10 @@
         <v>2747.547</v>
       </c>
       <c r="K13">
-        <v>6003664.9496999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6003664.9497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5614,10 +5585,10 @@
         <v>3813</v>
       </c>
       <c r="K14">
-        <v>1295657.3999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1295657.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5652,7 +5623,7 @@
         <v>1301866.5876</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5678,19 +5649,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8676.8019999999997</v>
+        <v>8676.802</v>
       </c>
       <c r="J16">
-        <v>8676.8019999999997</v>
+        <v>8676.802</v>
       </c>
       <c r="K16">
-        <v>286074.16194000002</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="2">
-        <f>SUM(K2:K16)</f>
-        <v>133716584.53432438</v>
+        <v>286074.16194</v>
       </c>
     </row>
   </sheetData>
@@ -5699,19 +5664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5740,7 +5700,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5772,7 +5732,7 @@
         <v>32699.49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5801,10 +5761,10 @@
         <v>5673.48</v>
       </c>
       <c r="J3">
-        <v>2438915.5824000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2438915.5824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5818,7 +5778,7 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>157.69999999999999</v>
+        <v>157.7</v>
       </c>
       <c r="F4">
         <v>2392.42</v>
@@ -5833,10 +5793,10 @@
         <v>5673.48</v>
       </c>
       <c r="J4">
-        <v>894707.79599999986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>894707.7959999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5865,10 +5825,10 @@
         <v>5673.48</v>
       </c>
       <c r="J5">
-        <v>96278.955599999987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96278.95559999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5885,22 +5845,22 @@
         <v>1267.96</v>
       </c>
       <c r="F6">
-        <v>772.00170937049199</v>
+        <v>772.001709370492</v>
       </c>
       <c r="G6">
-        <v>145.43455532033681</v>
+        <v>145.4345553203368</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>917.43626469082869</v>
+        <v>917.4362646908287</v>
       </c>
       <c r="J6">
         <v>1163272.486177383</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5917,7 +5877,7 @@
         <v>250.13</v>
       </c>
       <c r="F7">
-        <v>9446.0341874098413</v>
+        <v>9446.034187409841</v>
       </c>
       <c r="G7">
         <v>1687.591106406735</v>
@@ -5926,13 +5886,13 @@
         <v>17711.572</v>
       </c>
       <c r="I7">
-        <v>28845.197293816582</v>
+        <v>28845.19729381658</v>
       </c>
       <c r="J7">
-        <v>7215049.1991023403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7215049.19910234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5949,7 +5909,7 @@
         <v>5771.61</v>
       </c>
       <c r="F8">
-        <v>411.34061533685281</v>
+        <v>411.3406153368528</v>
       </c>
       <c r="G8">
         <v>76.14156964011525</v>
@@ -5958,13 +5918,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>487.48218497696797</v>
+        <v>487.482184976968</v>
       </c>
       <c r="J8">
-        <v>2813557.0536349178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2813557.053634918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5981,7 +5941,7 @@
         <v>6135.23</v>
       </c>
       <c r="F9">
-        <v>411.34061533685281</v>
+        <v>411.3406153368528</v>
       </c>
       <c r="G9">
         <v>76.14156964011525</v>
@@ -5990,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>487.48218497696797</v>
+        <v>487.482184976968</v>
       </c>
       <c r="J9">
-        <v>2990815.3257362428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2990815.325736243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6025,10 +5985,10 @@
         <v>63820</v>
       </c>
       <c r="J10">
-        <v>29186800.600000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29186800.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6060,7 +6020,7 @@
         <v>19159124.23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6092,7 +6052,7 @@
         <v>1951833.90402</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6124,7 +6084,7 @@
         <v>3057247.7034</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6156,7 +6116,7 @@
         <v>3312030.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6185,10 +6145,10 @@
         <v>50.4</v>
       </c>
       <c r="J15">
-        <v>650546.06400000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>650546.064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6217,13 +6177,7 @@
         <v>17885.859</v>
       </c>
       <c r="J16">
-        <v>589696.77122999995</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="2">
-        <f>SUM(J2:J16)</f>
-        <v>75552575.761300877</v>
+        <v>589696.77123</v>
       </c>
     </row>
   </sheetData>
@@ -6232,19 +6186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6291,7 +6240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6341,7 +6290,7 @@
         <v>33066.9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6358,7 +6307,7 @@
         <v>429.88</v>
       </c>
       <c r="F3">
-        <v>1893.2070000000001</v>
+        <v>1893.207</v>
       </c>
       <c r="G3">
         <v>3204.45</v>
@@ -6367,31 +6316,31 @@
         <v>4047.9</v>
       </c>
       <c r="I3">
-        <v>181.72499999999999</v>
+        <v>181.725</v>
       </c>
       <c r="J3">
-        <v>964.34999999999991</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="K3">
-        <v>3356.2249999999999</v>
+        <v>3356.225</v>
       </c>
       <c r="L3">
         <v>1002.1075</v>
       </c>
       <c r="M3">
-        <v>586.01400000000001</v>
+        <v>586.014</v>
       </c>
       <c r="N3">
-        <v>275.51249999999999</v>
+        <v>275.5125</v>
       </c>
       <c r="O3">
         <v>15511.491</v>
       </c>
       <c r="P3">
-        <v>6668079.7510799998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6668079.75108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6405,10 +6354,10 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>157.69999999999999</v>
+        <v>157.7</v>
       </c>
       <c r="F4">
-        <v>1893.2070000000001</v>
+        <v>1893.207</v>
       </c>
       <c r="G4">
         <v>3204.45</v>
@@ -6417,31 +6366,31 @@
         <v>4047.9</v>
       </c>
       <c r="I4">
-        <v>181.72499999999999</v>
+        <v>181.725</v>
       </c>
       <c r="J4">
-        <v>964.34999999999991</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="K4">
-        <v>3356.2249999999999</v>
+        <v>3356.225</v>
       </c>
       <c r="L4">
         <v>1002.1075</v>
       </c>
       <c r="M4">
-        <v>586.01400000000001</v>
+        <v>586.014</v>
       </c>
       <c r="N4">
-        <v>275.51249999999999</v>
+        <v>275.5125</v>
       </c>
       <c r="O4">
         <v>15511.491</v>
       </c>
       <c r="P4">
-        <v>2446162.1307000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2446162.1307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6458,7 +6407,7 @@
         <v>16.97</v>
       </c>
       <c r="F5">
-        <v>1893.2070000000001</v>
+        <v>1893.207</v>
       </c>
       <c r="G5">
         <v>3204.45</v>
@@ -6467,22 +6416,22 @@
         <v>4047.9</v>
       </c>
       <c r="I5">
-        <v>181.72499999999999</v>
+        <v>181.725</v>
       </c>
       <c r="J5">
-        <v>964.34999999999991</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="K5">
-        <v>3356.2249999999999</v>
+        <v>3356.225</v>
       </c>
       <c r="L5">
         <v>1002.1075</v>
       </c>
       <c r="M5">
-        <v>586.01400000000001</v>
+        <v>586.014</v>
       </c>
       <c r="N5">
-        <v>275.51249999999999</v>
+        <v>275.5125</v>
       </c>
       <c r="O5">
         <v>15511.491</v>
@@ -6491,7 +6440,7 @@
         <v>263230.00227</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6511,13 +6460,13 @@
         <v>401.1860460033497</v>
       </c>
       <c r="G6">
-        <v>657.29049894151535</v>
+        <v>657.2904989415154</v>
       </c>
       <c r="H6">
-        <v>588.07366596101031</v>
+        <v>588.0736659610103</v>
       </c>
       <c r="I6">
-        <v>54.692277660168372</v>
+        <v>54.69227766016837</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6535,13 +6484,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1701.2424885660439</v>
+        <v>1701.242488566044</v>
       </c>
       <c r="P6">
         <v>2157107.425802201</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6561,37 +6510,37 @@
         <v>4669.612920066993</v>
       </c>
       <c r="G7">
-        <v>7622.5099788303078</v>
+        <v>7622.509978830308</v>
       </c>
       <c r="H7">
-        <v>6580.4733192202048</v>
+        <v>6580.473319220205</v>
       </c>
       <c r="I7">
         <v>663.5455532033676</v>
       </c>
       <c r="J7">
-        <v>4964.9189999999999</v>
+        <v>4964.919</v>
       </c>
       <c r="K7">
-        <v>11421.012000000001</v>
+        <v>11421.012</v>
       </c>
       <c r="L7">
-        <v>1744.1990000000001</v>
+        <v>1744.199</v>
       </c>
       <c r="M7">
         <v>1848.752</v>
       </c>
       <c r="N7">
-        <v>498.76900000000001</v>
+        <v>498.769</v>
       </c>
       <c r="O7">
-        <v>40013.792771320877</v>
+        <v>40013.79277132088</v>
       </c>
       <c r="P7">
-        <v>10008649.985890489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10008649.98589049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6608,16 +6557,16 @@
         <v>5771.61</v>
       </c>
       <c r="F8">
-        <v>210.24952638512499</v>
+        <v>210.249526385125</v>
       </c>
       <c r="G8">
-        <v>344.05456338051857</v>
+        <v>344.0545633805186</v>
       </c>
       <c r="H8">
-        <v>304.30970892034571</v>
+        <v>304.3097089203457</v>
       </c>
       <c r="I8">
-        <v>29.058284820057619</v>
+        <v>29.05828482005762</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6635,13 +6584,13 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>887.67208350604687</v>
+        <v>887.6720835060469</v>
       </c>
       <c r="P8">
-        <v>5123297.0738843353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5123297.073884335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6658,16 +6607,16 @@
         <v>6135.23</v>
       </c>
       <c r="F9">
-        <v>210.24952638512499</v>
+        <v>210.249526385125</v>
       </c>
       <c r="G9">
-        <v>344.05456338051857</v>
+        <v>344.0545633805186</v>
       </c>
       <c r="H9">
-        <v>304.30970892034571</v>
+        <v>304.3097089203457</v>
       </c>
       <c r="I9">
-        <v>29.058284820057619</v>
+        <v>29.05828482005762</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6685,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>887.67208350604687</v>
+        <v>887.6720835060469</v>
       </c>
       <c r="P9">
-        <v>5446072.3968888037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5446072.396888804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6738,10 +6687,10 @@
         <v>115386</v>
       </c>
       <c r="P10">
-        <v>52769479.380000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52769479.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6791,7 +6740,7 @@
         <v>24678123.41</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6808,7 +6757,7 @@
         <v>1395.03</v>
       </c>
       <c r="F12">
-        <v>569.07600000000002</v>
+        <v>569.076</v>
       </c>
       <c r="G12">
         <v>922.5</v>
@@ -6817,7 +6766,7 @@
         <v>759</v>
       </c>
       <c r="I12">
-        <v>82.504999999999995</v>
+        <v>82.505</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -6835,13 +6784,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2333.0810000000001</v>
+        <v>2333.081</v>
       </c>
       <c r="P12">
-        <v>3254717.9874300002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3254717.98743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6858,7 +6807,7 @@
         <v>2185.1</v>
       </c>
       <c r="F13">
-        <v>569.07600000000002</v>
+        <v>569.076</v>
       </c>
       <c r="G13">
         <v>922.5</v>
@@ -6867,7 +6816,7 @@
         <v>759</v>
       </c>
       <c r="I13">
-        <v>82.504999999999995</v>
+        <v>82.505</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -6885,13 +6834,13 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2333.0810000000001</v>
+        <v>2333.081</v>
       </c>
       <c r="P13">
-        <v>5098015.2931000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5098015.2931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6941,7 +6890,7 @@
         <v>2854999.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6958,7 +6907,7 @@
         <v>12907.66</v>
       </c>
       <c r="F15">
-        <v>16.920000000000002</v>
+        <v>16.92</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -6988,10 +6937,10 @@
         <v>64.92</v>
       </c>
       <c r="P15">
-        <v>837965.28720000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>837965.2872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7020,31 +6969,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5008.7340000000004</v>
+        <v>5008.734</v>
       </c>
       <c r="K16">
-        <v>11503.772999999999</v>
+        <v>11503.773</v>
       </c>
       <c r="L16">
-        <v>1752.4749999999999</v>
+        <v>1752.475</v>
       </c>
       <c r="M16">
         <v>1861.604</v>
       </c>
       <c r="N16">
-        <v>501.20400000000001</v>
+        <v>501.204</v>
       </c>
       <c r="O16">
         <v>20627.79</v>
       </c>
       <c r="P16">
-        <v>680098.23629999987</v>
-      </c>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P17" s="2">
-        <f>SUM(P2:P16)</f>
-        <v>122319064.86054583</v>
+        <v>680098.2362999999</v>
       </c>
     </row>
   </sheetData>
@@ -7053,25 +6996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7109,636 +7041,619 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>367.41</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>31</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>12</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>17</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>77</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2">
         <v>28290.57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>429.88</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>435.54</v>
       </c>
-      <c r="G3" s="4">
-        <v>11065.887500000001</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3">
+        <v>11065.8875</v>
+      </c>
+      <c r="H3">
         <v>333.3125</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>1578.06</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>2034.15</v>
       </c>
-      <c r="K3" s="4">
-        <v>4886.8874999999998</v>
-      </c>
-      <c r="L3" s="4">
-        <v>20333.837500000001</v>
-      </c>
-      <c r="M3" s="4">
-        <v>8741110.0644999985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>4886.8875</v>
+      </c>
+      <c r="L3">
+        <v>20333.8375</v>
+      </c>
+      <c r="M3">
+        <v>8741110.064499998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="4">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4">
+        <v>157.7</v>
+      </c>
+      <c r="F4">
         <v>435.54</v>
       </c>
-      <c r="G4" s="4">
-        <v>11065.887500000001</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4">
+        <v>11065.8875</v>
+      </c>
+      <c r="H4">
         <v>333.3125</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>1578.06</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>2034.15</v>
       </c>
-      <c r="K4" s="4">
-        <v>4886.8874999999998</v>
-      </c>
-      <c r="L4" s="4">
-        <v>20333.837500000001</v>
-      </c>
-      <c r="M4" s="4">
-        <v>3206646.1737500001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>4886.8875</v>
+      </c>
+      <c r="L4">
+        <v>20333.8375</v>
+      </c>
+      <c r="M4">
+        <v>3206646.17375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>16.97</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>435.54</v>
       </c>
-      <c r="G5" s="4">
-        <v>11065.887500000001</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5">
+        <v>11065.8875</v>
+      </c>
+      <c r="H5">
         <v>333.3125</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>1578.06</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>2034.15</v>
       </c>
-      <c r="K5" s="4">
-        <v>4886.8874999999998</v>
-      </c>
-      <c r="L5" s="4">
-        <v>20333.837500000001</v>
-      </c>
-      <c r="M5" s="4">
-        <v>345065.22237500001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4886.8875</v>
+      </c>
+      <c r="L5">
+        <v>20333.8375</v>
+      </c>
+      <c r="M5">
+        <v>345065.222375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>1267.96</v>
       </c>
-      <c r="F6" s="4">
-        <v>88.394733192202068</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1693.9297256490479</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6">
+        <v>88.39473319220207</v>
+      </c>
+      <c r="G6">
+        <v>1693.929725649048</v>
+      </c>
+      <c r="H6">
         <v>120.9181941504209</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1903.2426529916711</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1903.242652991671</v>
+      </c>
+      <c r="M6">
         <v>2413235.55428732</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>250.13</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>1023.894663844041</v>
       </c>
-      <c r="G7" s="4">
-        <v>19050.169512980949</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7">
+        <v>19050.16951298095</v>
+      </c>
+      <c r="H7">
         <v>1500.738883008419</v>
       </c>
-      <c r="I7" s="4">
-        <v>5019.2809999999999</v>
-      </c>
-      <c r="J7" s="4">
-        <v>4922.7079999999996</v>
-      </c>
-      <c r="K7" s="4">
-        <v>9437.3430000000008</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="I7">
+        <v>5019.281</v>
+      </c>
+      <c r="J7">
+        <v>4922.708</v>
+      </c>
+      <c r="K7">
+        <v>9437.343000000001</v>
+      </c>
+      <c r="L7">
         <v>40954.13505983341</v>
       </c>
-      <c r="M7" s="4">
-        <v>10243857.802516131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>10243857.80251613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>5771.61</v>
       </c>
-      <c r="F8" s="4">
-        <v>46.251941784069153</v>
-      </c>
-      <c r="G8" s="4">
-        <v>877.95470524304301</v>
-      </c>
-      <c r="H8" s="4">
-        <v>64.739462050144056</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>988.94610907725621</v>
-      </c>
-      <c r="M8" s="4">
-        <v>5707811.2526113819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>46.25194178406915</v>
+      </c>
+      <c r="G8">
+        <v>877.954705243043</v>
+      </c>
+      <c r="H8">
+        <v>64.73946205014406</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>988.9461090772562</v>
+      </c>
+      <c r="M8">
+        <v>5707811.252611382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>6135.23</v>
       </c>
-      <c r="F9" s="4">
-        <v>46.251941784069153</v>
-      </c>
-      <c r="G9" s="4">
-        <v>877.95470524304301</v>
-      </c>
-      <c r="H9" s="4">
-        <v>64.739462050144056</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>988.94610907725621</v>
-      </c>
-      <c r="M9" s="4">
-        <v>6067411.8367940541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>46.25194178406915</v>
+      </c>
+      <c r="G9">
+        <v>877.954705243043</v>
+      </c>
+      <c r="H9">
+        <v>64.73946205014406</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>988.9461090772562</v>
+      </c>
+      <c r="M9">
+        <v>6067411.836794054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>457.33</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>6000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>113125</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>8500</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>127625</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>58366741.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>684.23</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>2000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>30167</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>4167</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>36334</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>24860812.82</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>1395.03</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>123</v>
       </c>
-      <c r="G12" s="4">
-        <v>2217.2550000000001</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12">
+        <v>2217.255</v>
+      </c>
+      <c r="H12">
         <v>192.255</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2532.5100000000002</v>
-      </c>
-      <c r="M12" s="4">
-        <v>3532927.4252999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2532.51</v>
+      </c>
+      <c r="M12">
+        <v>3532927.4253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>2185.1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>123</v>
       </c>
-      <c r="G13" s="4">
-        <v>2217.2550000000001</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13">
+        <v>2217.255</v>
+      </c>
+      <c r="H13">
         <v>192.255</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2532.5100000000002</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5533787.6009999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2532.51</v>
+      </c>
+      <c r="M13">
+        <v>5533787.601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>339.8</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1961</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>1635</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14">
         <v>2696</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>6292</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>2138021.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>12907.66</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>3.6</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>54.3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>7.5</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="M15" s="4">
-        <v>844160.96400000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="M15">
+        <v>844160.964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>32.97</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>5054.3329999999996</v>
-      </c>
-      <c r="J16" s="4">
-        <v>4951.9179999999997</v>
-      </c>
-      <c r="K16" s="4">
-        <v>9485.5390000000007</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5054.333</v>
+      </c>
+      <c r="J16">
+        <v>4951.918</v>
+      </c>
+      <c r="K16">
+        <v>9485.539000000001</v>
+      </c>
+      <c r="L16">
         <v>19491.79</v>
       </c>
-      <c r="M16" s="4">
-        <v>642644.31630000006</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="4">
-        <f>SUM(M2:M16)</f>
-        <v>132672524.45343387</v>
+      <c r="M16">
+        <v>642644.3163000001</v>
       </c>
     </row>
   </sheetData>
@@ -7747,21 +7662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7775,7 +7683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7785,14 +7693,14 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>367.41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7802,14 +7710,14 @@
       <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>429.88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7819,14 +7727,14 @@
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="3">
-        <v>157.69999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>157.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7836,14 +7744,14 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>16.97</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7853,14 +7761,14 @@
       <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>1267.96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7870,14 +7778,14 @@
       <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>250.13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7887,14 +7795,14 @@
       <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>5771.61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7904,14 +7812,14 @@
       <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>6135.23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7921,14 +7829,14 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>457.33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7938,14 +7846,14 @@
       <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>684.23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7955,14 +7863,14 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>1395.03</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7972,14 +7880,14 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>2185.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7989,14 +7897,14 @@
       <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>339.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8006,14 +7914,14 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>12907.66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8023,10 +7931,10 @@
       <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>32.97</v>
       </c>
     </row>
@@ -8036,14 +7944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -8066,7 +7974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8077,7 +7985,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8092,21 +8000,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="C3">
-        <v>8.9700000000000006</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D3">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E3">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F3">
         <v>10.00000000000156</v>
@@ -8118,33 +8026,33 @@
         <v>11.60000000000181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.649999999999999</v>
+        <v>19.65</v>
       </c>
       <c r="C4">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="E4">
         <v>1.145</v>
       </c>
       <c r="F4">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G4">
-        <v>57.249999999996753</v>
+        <v>57.24999999999675</v>
       </c>
       <c r="H4">
-        <v>68.849999999998559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68.84999999999856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8155,22 +8063,22 @@
         <v>8.6</v>
       </c>
       <c r="D5">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="E5">
         <v>1.125</v>
       </c>
       <c r="F5">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G5">
-        <v>56.250000000000803</v>
+        <v>56.2500000000008</v>
       </c>
       <c r="H5">
         <v>125.0999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8181,22 +8089,22 @@
         <v>8.77</v>
       </c>
       <c r="D6">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="E6">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="F6">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G6">
-        <v>56.500000000000803</v>
+        <v>56.5000000000008</v>
       </c>
       <c r="H6">
-        <v>181.60000000000011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181.6000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8204,16 +8112,16 @@
         <v>19.8</v>
       </c>
       <c r="C7">
-        <v>8.9700000000000006</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D7">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E7">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="F7">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G7">
         <v>57.50000000000081</v>
@@ -8222,12 +8130,12 @@
         <v>239.1000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.850000000000001</v>
+        <v>19.85</v>
       </c>
       <c r="C8">
         <v>9.77</v>
@@ -8236,24 +8144,24 @@
         <v>1.23</v>
       </c>
       <c r="E8">
-        <v>1.1950000000000001</v>
+        <v>1.195</v>
       </c>
       <c r="F8">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G8">
-        <v>59.750000000000838</v>
+        <v>59.75000000000084</v>
       </c>
       <c r="H8">
-        <v>298.85000000000178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>298.8500000000018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="C9">
         <v>10.37</v>
@@ -8262,19 +8170,19 @@
         <v>1.28</v>
       </c>
       <c r="E9">
-        <v>1.2549999999999999</v>
+        <v>1.255</v>
       </c>
       <c r="F9">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G9">
-        <v>62.749999999996433</v>
+        <v>62.74999999999643</v>
       </c>
       <c r="H9">
         <v>361.5999999999982</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8291,16 +8199,16 @@
         <v>1.26</v>
       </c>
       <c r="F10">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G10">
-        <v>63.000000000000902</v>
+        <v>63.0000000000009</v>
       </c>
       <c r="H10">
-        <v>424.59999999999911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>424.5999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8317,16 +8225,16 @@
         <v>1.23</v>
       </c>
       <c r="F11">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G11">
-        <v>61.500000000000867</v>
+        <v>61.50000000000087</v>
       </c>
       <c r="H11">
         <v>486.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8340,24 +8248,24 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="F12">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G12">
-        <v>55.500000000000782</v>
+        <v>55.50000000000078</v>
       </c>
       <c r="H12">
         <v>541.6000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="C13">
         <v>12.55</v>
@@ -8366,16 +8274,16 @@
         <v>1.45</v>
       </c>
       <c r="E13">
-        <v>1.2250000000000001</v>
+        <v>1.225</v>
       </c>
       <c r="F13">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G13">
-        <v>61.250000000000867</v>
+        <v>61.25000000000087</v>
       </c>
       <c r="H13">
-        <v>602.85000000000161</v>
+        <v>602.8500000000016</v>
       </c>
     </row>
   </sheetData>
@@ -8384,14 +8292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -8414,7 +8322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8440,12 +8348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="C3">
         <v>20.5</v>
@@ -8460,13 +8368,13 @@
         <v>19.99999999999957</v>
       </c>
       <c r="G3">
-        <v>34.399999999999267</v>
+        <v>34.39999999999927</v>
       </c>
       <c r="H3">
-        <v>34.399999999999267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34.39999999999927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8483,16 +8391,16 @@
         <v>1.91</v>
       </c>
       <c r="F4">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G4">
-        <v>95.500000000001364</v>
+        <v>95.50000000000136</v>
       </c>
       <c r="H4">
         <v>129.9000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8506,19 +8414,19 @@
         <v>1.66</v>
       </c>
       <c r="E5">
-        <v>1.7450000000000001</v>
+        <v>1.745</v>
       </c>
       <c r="F5">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G5">
-        <v>87.250000000001251</v>
+        <v>87.25000000000125</v>
       </c>
       <c r="H5">
-        <v>217.15000000000191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217.1500000000019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8532,24 +8440,24 @@
         <v>1.31</v>
       </c>
       <c r="E6">
-        <v>1.4850000000000001</v>
+        <v>1.485</v>
       </c>
       <c r="F6">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G6">
-        <v>74.250000000001052</v>
+        <v>74.25000000000105</v>
       </c>
       <c r="H6">
-        <v>291.40000000000288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291.4000000000029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.350000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="C7">
         <v>10.55</v>
@@ -8561,24 +8469,24 @@
         <v>1.3</v>
       </c>
       <c r="F7">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G7">
-        <v>65.000000000000924</v>
+        <v>65.00000000000092</v>
       </c>
       <c r="H7">
-        <v>356.40000000000379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>356.4000000000038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="C8">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8">
         <v>1.23</v>
@@ -8587,16 +8495,16 @@
         <v>1.26</v>
       </c>
       <c r="F8">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G8">
-        <v>62.999999999996419</v>
+        <v>62.99999999999642</v>
       </c>
       <c r="H8">
-        <v>419.40000000000032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419.4000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8610,19 +8518,19 @@
         <v>1.18</v>
       </c>
       <c r="E9">
-        <v>1.2050000000000001</v>
+        <v>1.205</v>
       </c>
       <c r="F9">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G9">
         <v>60.25000000000086</v>
       </c>
       <c r="H9">
-        <v>479.65000000000111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479.6500000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8630,7 +8538,7 @@
         <v>20.5</v>
       </c>
       <c r="C10">
-        <v>9.14</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D10">
         <v>1.17</v>
@@ -8639,16 +8547,16 @@
         <v>1.175</v>
       </c>
       <c r="F10">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G10">
-        <v>58.750000000000817</v>
+        <v>58.75000000000082</v>
       </c>
       <c r="H10">
-        <v>538.40000000000191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>538.4000000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8665,16 +8573,16 @@
         <v>1.2</v>
       </c>
       <c r="F11">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G11">
-        <v>60.000000000000853</v>
+        <v>60.00000000000085</v>
       </c>
       <c r="H11">
-        <v>598.40000000000282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>598.4000000000028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8688,19 +8596,19 @@
         <v>1.28</v>
       </c>
       <c r="E12">
-        <v>1.2549999999999999</v>
+        <v>1.255</v>
       </c>
       <c r="F12">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G12">
-        <v>62.750000000000888</v>
+        <v>62.75000000000089</v>
       </c>
       <c r="H12">
-        <v>661.15000000000373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661.1500000000037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8714,19 +8622,19 @@
         <v>1.29</v>
       </c>
       <c r="E13">
-        <v>1.2849999999999999</v>
+        <v>1.285</v>
       </c>
       <c r="F13">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G13">
-        <v>64.249999999996348</v>
+        <v>64.24999999999635</v>
       </c>
       <c r="H13">
-        <v>725.40000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>725.4000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8740,19 +8648,19 @@
         <v>1.28</v>
       </c>
       <c r="E14">
-        <v>1.2849999999999999</v>
+        <v>1.285</v>
       </c>
       <c r="F14">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G14">
-        <v>64.250000000000924</v>
+        <v>64.25000000000092</v>
       </c>
       <c r="H14">
         <v>789.650000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8766,19 +8674,19 @@
         <v>1.17</v>
       </c>
       <c r="E15">
-        <v>1.2250000000000001</v>
+        <v>1.225</v>
       </c>
       <c r="F15">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G15">
-        <v>61.250000000000867</v>
+        <v>61.25000000000087</v>
       </c>
       <c r="H15">
-        <v>850.90000000000191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>850.9000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8786,7 +8694,7 @@
         <v>20.8</v>
       </c>
       <c r="C16">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="D16">
         <v>1.25</v>
@@ -8795,16 +8703,16 @@
         <v>1.21</v>
       </c>
       <c r="F16">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G16">
         <v>60.50000000000086</v>
       </c>
       <c r="H16">
-        <v>911.40000000000282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>911.4000000000028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8821,16 +8729,16 @@
         <v>1.24</v>
       </c>
       <c r="F17">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G17">
-        <v>62.000000000000881</v>
+        <v>62.00000000000088</v>
       </c>
       <c r="H17">
-        <v>973.40000000000373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>973.4000000000037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8844,19 +8752,19 @@
         <v>1.2</v>
       </c>
       <c r="E18">
-        <v>1.2150000000000001</v>
+        <v>1.215</v>
       </c>
       <c r="F18">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G18">
         <v>60.74999999999654</v>
       </c>
       <c r="H18">
-        <v>1034.1500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1034.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8873,16 +8781,16 @@
         <v>1.26</v>
       </c>
       <c r="F19">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G19">
-        <v>63.000000000000902</v>
+        <v>63.0000000000009</v>
       </c>
       <c r="H19">
         <v>1097.150000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8896,24 +8804,24 @@
         <v>1.31</v>
       </c>
       <c r="E20">
-        <v>1.3149999999999999</v>
+        <v>1.315</v>
       </c>
       <c r="F20">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G20">
-        <v>65.750000000000938</v>
+        <v>65.75000000000094</v>
       </c>
       <c r="H20">
-        <v>1162.9000000000019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1162.900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.016999999999999</v>
+        <v>21.017</v>
       </c>
       <c r="C21">
         <v>11.32</v>
@@ -8928,18 +8836,18 @@
         <v>16.99999999999946</v>
       </c>
       <c r="G21">
-        <v>22.609999999999278</v>
+        <v>22.60999999999928</v>
       </c>
       <c r="H21">
-        <v>1185.5100000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1185.510000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.027000000000001</v>
+        <v>21.027</v>
       </c>
       <c r="C22">
         <v>26.32</v>
@@ -8957,10 +8865,10 @@
         <v>18.40000000000288</v>
       </c>
       <c r="H22">
-        <v>1203.9100000000039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1203.910000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8974,24 +8882,24 @@
         <v>2.52</v>
       </c>
       <c r="E23">
-        <v>2.4249999999999998</v>
+        <v>2.425</v>
       </c>
       <c r="F23">
-        <v>22.999999999999691</v>
+        <v>22.99999999999969</v>
       </c>
       <c r="G23">
-        <v>55.774999999999238</v>
+        <v>55.77499999999924</v>
       </c>
       <c r="H23">
-        <v>1259.6850000000029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1259.685000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.056999999999999</v>
+        <v>21.057</v>
       </c>
       <c r="C24">
         <v>10.46</v>
@@ -9003,7 +8911,7 @@
         <v>1.9</v>
       </c>
       <c r="F24">
-        <v>6.9999999999978968</v>
+        <v>6.999999999997897</v>
       </c>
       <c r="G24">
         <v>13.299999999996</v>
@@ -9012,7 +8920,7 @@
         <v>1272.984999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9029,16 +8937,16 @@
         <v>1.28</v>
       </c>
       <c r="F25">
-        <v>43.000000000002807</v>
+        <v>43.00000000000281</v>
       </c>
       <c r="G25">
-        <v>55.040000000003602</v>
+        <v>55.0400000000036</v>
       </c>
       <c r="H25">
         <v>1328.025000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9055,7 +8963,7 @@
         <v>1.27</v>
       </c>
       <c r="F26">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G26">
         <v>63.49999999999639</v>
@@ -9064,7 +8972,7 @@
         <v>1391.524999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9078,19 +8986,19 @@
         <v>1.33</v>
       </c>
       <c r="E27">
-        <v>1.2949999999999999</v>
+        <v>1.295</v>
       </c>
       <c r="F27">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G27">
-        <v>64.750000000000909</v>
+        <v>64.75000000000091</v>
       </c>
       <c r="H27">
-        <v>1456.2750000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1456.275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9104,13 +9012,13 @@
         <v>1.2</v>
       </c>
       <c r="E28">
-        <v>1.2649999999999999</v>
+        <v>1.265</v>
       </c>
       <c r="F28">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G28">
-        <v>63.250000000000902</v>
+        <v>63.2500000000009</v>
       </c>
       <c r="H28">
         <v>1519.525000000001</v>
@@ -9122,14 +9030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9152,7 +9060,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9160,7 +9068,7 @@
         <v>21.25</v>
       </c>
       <c r="C2">
-        <v>9.5399999999999991</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D2">
         <v>1.21</v>
@@ -9178,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9192,19 +9100,19 @@
         <v>1.3</v>
       </c>
       <c r="E3">
-        <v>1.2549999999999999</v>
+        <v>1.255</v>
       </c>
       <c r="F3">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G3">
-        <v>62.750000000000888</v>
+        <v>62.75000000000089</v>
       </c>
       <c r="H3">
-        <v>62.750000000000888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62.75000000000089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9221,16 +9129,16 @@
         <v>1.27</v>
       </c>
       <c r="F4">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G4">
-        <v>63.500000000000902</v>
+        <v>63.5000000000009</v>
       </c>
       <c r="H4">
         <v>126.2500000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9238,25 +9146,25 @@
         <v>21.4</v>
       </c>
       <c r="C5">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D5">
         <v>1.21</v>
       </c>
       <c r="E5">
-        <v>1.2250000000000001</v>
+        <v>1.225</v>
       </c>
       <c r="F5">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G5">
-        <v>61.249999999996533</v>
+        <v>61.24999999999653</v>
       </c>
       <c r="H5">
-        <v>187.49999999999829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187.4999999999983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9273,16 +9181,16 @@
         <v>1.22</v>
       </c>
       <c r="F6">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G6">
-        <v>61.000000000000867</v>
+        <v>61.00000000000087</v>
       </c>
       <c r="H6">
         <v>248.4999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9299,16 +9207,16 @@
         <v>1.27</v>
       </c>
       <c r="F7">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G7">
-        <v>63.500000000000902</v>
+        <v>63.5000000000009</v>
       </c>
       <c r="H7">
-        <v>312.00000000000011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>312.0000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9325,16 +9233,16 @@
         <v>1.31</v>
       </c>
       <c r="F8">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G8">
-        <v>65.500000000000938</v>
+        <v>65.50000000000094</v>
       </c>
       <c r="H8">
-        <v>377.50000000000102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377.500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9351,16 +9259,16 @@
         <v>1.33</v>
       </c>
       <c r="F9">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G9">
-        <v>66.500000000000952</v>
+        <v>66.50000000000095</v>
       </c>
       <c r="H9">
-        <v>444.00000000000199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>444.000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9377,16 +9285,16 @@
         <v>1.345</v>
       </c>
       <c r="F10">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G10">
-        <v>67.249999999996191</v>
+        <v>67.24999999999619</v>
       </c>
       <c r="H10">
-        <v>511.24999999999818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>511.2499999999982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9403,16 +9311,16 @@
         <v>1.34</v>
       </c>
       <c r="F11">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G11">
-        <v>67.000000000000952</v>
+        <v>67.00000000000095</v>
       </c>
       <c r="H11">
-        <v>578.24999999999909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>578.2499999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9429,16 +9337,16 @@
         <v>1.375</v>
       </c>
       <c r="F12">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G12">
-        <v>68.750000000000981</v>
+        <v>68.75000000000098</v>
       </c>
       <c r="H12">
-        <v>647.00000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>647.0000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9455,16 +9363,16 @@
         <v>1.29</v>
       </c>
       <c r="F13">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G13">
-        <v>64.500000000000924</v>
+        <v>64.50000000000092</v>
       </c>
       <c r="H13">
-        <v>711.50000000000102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>711.500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9478,19 +9386,19 @@
         <v>1.34</v>
       </c>
       <c r="E14">
-        <v>1.2549999999999999</v>
+        <v>1.255</v>
       </c>
       <c r="F14">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G14">
-        <v>62.750000000000888</v>
+        <v>62.75000000000089</v>
       </c>
       <c r="H14">
-        <v>774.25000000000193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>774.2500000000019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9498,25 +9406,25 @@
         <v>21.9</v>
       </c>
       <c r="C15">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D15">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E15">
         <v>1.25</v>
       </c>
       <c r="F15">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G15">
-        <v>62.499999999996447</v>
+        <v>62.49999999999645</v>
       </c>
       <c r="H15">
-        <v>836.74999999999841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>836.7499999999984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9524,7 +9432,7 @@
         <v>21.95</v>
       </c>
       <c r="C16">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D16">
         <v>1.17</v>
@@ -9533,10 +9441,10 @@
         <v>1.165</v>
       </c>
       <c r="F16">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G16">
-        <v>58.250000000000831</v>
+        <v>58.25000000000083</v>
       </c>
       <c r="H16">
         <v>894.9999999999992</v>
@@ -9548,14 +9456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9578,7 +9486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9586,7 +9494,7 @@
         <v>21.95</v>
       </c>
       <c r="C2">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D2">
         <v>1.17</v>
@@ -9604,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9621,16 +9529,16 @@
         <v>1.18</v>
       </c>
       <c r="F3">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G3">
-        <v>59.000000000000838</v>
+        <v>59.00000000000084</v>
       </c>
       <c r="H3">
-        <v>59.000000000000838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59.00000000000084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9647,16 +9555,16 @@
         <v>1.25</v>
       </c>
       <c r="F4">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G4">
-        <v>62.500000000000888</v>
+        <v>62.50000000000089</v>
       </c>
       <c r="H4">
-        <v>121.50000000000171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121.5000000000017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9670,19 +9578,19 @@
         <v>1.3</v>
       </c>
       <c r="E5">
-        <v>1.3049999999999999</v>
+        <v>1.305</v>
       </c>
       <c r="F5">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G5">
-        <v>65.250000000000938</v>
+        <v>65.25000000000094</v>
       </c>
       <c r="H5">
         <v>186.7500000000027</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9696,19 +9604,19 @@
         <v>1.65</v>
       </c>
       <c r="E6">
-        <v>1.4750000000000001</v>
+        <v>1.475</v>
       </c>
       <c r="F6">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G6">
-        <v>73.749999999995808</v>
+        <v>73.74999999999581</v>
       </c>
       <c r="H6">
-        <v>260.49999999999852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260.4999999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9722,19 +9630,19 @@
         <v>1.76</v>
       </c>
       <c r="E7">
-        <v>1.7050000000000001</v>
+        <v>1.705</v>
       </c>
       <c r="F7">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G7">
-        <v>85.250000000001222</v>
+        <v>85.25000000000122</v>
       </c>
       <c r="H7">
-        <v>345.74999999999972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>345.7499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9751,16 +9659,16 @@
         <v>1.605</v>
       </c>
       <c r="F8">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G8">
-        <v>80.250000000001137</v>
+        <v>80.25000000000114</v>
       </c>
       <c r="H8">
         <v>426.0000000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9777,16 +9685,16 @@
         <v>1.42</v>
       </c>
       <c r="F9">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G9">
-        <v>71.000000000001009</v>
+        <v>71.00000000000101</v>
       </c>
       <c r="H9">
-        <v>497.00000000000182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>497.0000000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9803,16 +9711,16 @@
         <v>1.405</v>
       </c>
       <c r="F10">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G10">
-        <v>70.250000000000995</v>
+        <v>70.25000000000099</v>
       </c>
       <c r="H10">
-        <v>567.25000000000284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>567.2500000000028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9829,16 +9737,16 @@
         <v>1.405</v>
       </c>
       <c r="F11">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G11">
-        <v>70.249999999995993</v>
+        <v>70.24999999999599</v>
       </c>
       <c r="H11">
-        <v>637.49999999999886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>637.4999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9855,16 +9763,16 @@
         <v>1.385</v>
       </c>
       <c r="F12">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G12">
-        <v>69.250000000000966</v>
+        <v>69.25000000000097</v>
       </c>
       <c r="H12">
-        <v>706.74999999999977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>706.7499999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9881,16 +9789,16 @@
         <v>1.22</v>
       </c>
       <c r="F13">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G13">
-        <v>61.000000000000867</v>
+        <v>61.00000000000087</v>
       </c>
       <c r="H13">
-        <v>767.75000000000068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>767.7500000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9904,19 +9812,19 @@
         <v>1.2</v>
       </c>
       <c r="E14">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="F14">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G14">
-        <v>56.500000000000803</v>
+        <v>56.5000000000008</v>
       </c>
       <c r="H14">
-        <v>824.25000000000148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>824.2500000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9933,16 +9841,16 @@
         <v>1.075</v>
       </c>
       <c r="F15">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G15">
         <v>53.75000000000076</v>
       </c>
       <c r="H15">
-        <v>878.00000000000227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>878.0000000000023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9956,16 +9864,16 @@
         <v>1.02</v>
       </c>
       <c r="E16">
-        <v>0.98499999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="F16">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G16">
         <v>49.2499999999972</v>
       </c>
       <c r="H16">
-        <v>927.24999999999943</v>
+        <v>927.2499999999994</v>
       </c>
     </row>
   </sheetData>
@@ -9974,14 +9882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -10004,7 +9912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10012,7 +9920,7 @@
         <v>26.08</v>
       </c>
       <c r="C2">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="D2">
         <v>0.66</v>
@@ -10030,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10050,18 +9958,18 @@
         <v>20.00000000000313</v>
       </c>
       <c r="G3">
-        <v>21.000000000003279</v>
+        <v>21.00000000000328</v>
       </c>
       <c r="H3">
-        <v>21.000000000003279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21.00000000000328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.108000000000001</v>
+        <v>26.108</v>
       </c>
       <c r="C4">
         <v>36.79</v>
@@ -10073,21 +9981,21 @@
         <v>2.15</v>
       </c>
       <c r="F4">
-        <v>7.9999999999991189</v>
+        <v>7.999999999999119</v>
       </c>
       <c r="G4">
-        <v>17.199999999998109</v>
+        <v>17.19999999999811</v>
       </c>
       <c r="H4">
-        <v>38.200000000001388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.20000000000139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.129000000000001</v>
+        <v>26.129</v>
       </c>
       <c r="C5">
         <v>52.34</v>
@@ -10099,16 +10007,16 @@
         <v>3.19</v>
       </c>
       <c r="F5">
-        <v>21.000000000000799</v>
+        <v>21.0000000000008</v>
       </c>
       <c r="G5">
-        <v>66.990000000002539</v>
+        <v>66.99000000000254</v>
       </c>
       <c r="H5">
-        <v>105.19000000000391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105.1900000000039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10119,7 +10027,7 @@
         <v>25.68</v>
       </c>
       <c r="D6">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E6">
         <v>2.91</v>
@@ -10128,13 +10036,13 @@
         <v>20.99999999999724</v>
       </c>
       <c r="G6">
-        <v>61.109999999991977</v>
+        <v>61.10999999999198</v>
       </c>
       <c r="H6">
-        <v>166.29999999999589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166.2999999999959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10151,7 +10059,7 @@
         <v>1.55</v>
       </c>
       <c r="F7">
-        <v>7.0000000000014504</v>
+        <v>7.00000000000145</v>
       </c>
       <c r="G7">
         <v>10.85000000000224</v>
@@ -10160,7 +10068,7 @@
         <v>177.1499999999981</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10174,16 +10082,16 @@
         <v>0.93</v>
       </c>
       <c r="E8">
-        <v>0.86499999999999999</v>
+        <v>0.865</v>
       </c>
       <c r="F8">
-        <v>22.999999999999691</v>
+        <v>22.99999999999969</v>
       </c>
       <c r="G8">
         <v>19.89499999999973</v>
       </c>
       <c r="H8">
-        <v>197.04499999999791</v>
+        <v>197.0449999999979</v>
       </c>
     </row>
   </sheetData>
@@ -10192,14 +10100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -10222,7 +10130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10248,15 +10156,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.850000000000001</v>
+        <v>17.85</v>
       </c>
       <c r="C3">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="D3">
         <v>0.66</v>
@@ -10265,21 +10173,21 @@
         <v>0.65</v>
       </c>
       <c r="F3">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G3">
-        <v>32.500000000000462</v>
+        <v>32.50000000000046</v>
       </c>
       <c r="H3">
-        <v>32.500000000000462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32.50000000000046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="C4">
         <v>4.34</v>
@@ -10291,16 +10199,16 @@
         <v>0.67</v>
       </c>
       <c r="F4">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G4">
-        <v>33.499999999998103</v>
+        <v>33.4999999999981</v>
       </c>
       <c r="H4">
         <v>65.99999999999855</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10314,19 +10222,19 @@
         <v>0.65</v>
       </c>
       <c r="E5">
-        <v>0.66500000000000004</v>
+        <v>0.665</v>
       </c>
       <c r="F5">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G5">
-        <v>33.250000000000483</v>
+        <v>33.25000000000048</v>
       </c>
       <c r="H5">
-        <v>99.249999999999034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99.24999999999903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10340,19 +10248,19 @@
         <v>0.62</v>
       </c>
       <c r="E6">
-        <v>0.63500000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="F6">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G6">
-        <v>31.750000000000451</v>
+        <v>31.75000000000045</v>
       </c>
       <c r="H6">
-        <v>130.99999999999949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130.9999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10363,27 +10271,27 @@
         <v>3.34</v>
       </c>
       <c r="D7">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E7">
-        <v>0.59000000000000008</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="F7">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G7">
-        <v>29.500000000000419</v>
+        <v>29.50000000000042</v>
       </c>
       <c r="H7">
-        <v>160.49999999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160.4999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="C8">
         <v>3.63</v>
@@ -10392,24 +10300,24 @@
         <v>0.6</v>
       </c>
       <c r="E8">
-        <v>0.58000000000000007</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="F8">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G8">
-        <v>29.000000000000419</v>
+        <v>29.00000000000042</v>
       </c>
       <c r="H8">
-        <v>189.50000000000031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189.5000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.149999999999999</v>
+        <v>18.15</v>
       </c>
       <c r="C9">
         <v>3.8</v>
@@ -10421,16 +10329,16 @@
         <v>0.61</v>
       </c>
       <c r="F9">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G9">
         <v>30.49999999999827</v>
       </c>
       <c r="H9">
-        <v>219.99999999999861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219.9999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10444,19 +10352,19 @@
         <v>0.59</v>
       </c>
       <c r="E10">
-        <v>0.60499999999999998</v>
+        <v>0.605</v>
       </c>
       <c r="F10">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G10">
         <v>30.25000000000043</v>
       </c>
       <c r="H10">
-        <v>250.24999999999901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250.249999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10464,25 +10372,25 @@
         <v>18.25</v>
       </c>
       <c r="C11">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="D11">
         <v>0.68</v>
       </c>
       <c r="E11">
-        <v>0.63500000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="F11">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G11">
-        <v>31.750000000000451</v>
+        <v>31.75000000000045</v>
       </c>
       <c r="H11">
-        <v>281.99999999999949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281.9999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10496,24 +10404,24 @@
         <v>0.73</v>
       </c>
       <c r="E12">
-        <v>0.70500000000000007</v>
+        <v>0.7050000000000001</v>
       </c>
       <c r="F12">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G12">
-        <v>35.250000000000497</v>
+        <v>35.2500000000005</v>
       </c>
       <c r="H12">
         <v>317.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.350000000000001</v>
+        <v>18.35</v>
       </c>
       <c r="C13">
         <v>4.45</v>
@@ -10522,24 +10430,24 @@
         <v>0.7</v>
       </c>
       <c r="E13">
-        <v>0.71499999999999997</v>
+        <v>0.715</v>
       </c>
       <c r="F13">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G13">
-        <v>35.750000000000497</v>
+        <v>35.7500000000005</v>
       </c>
       <c r="H13">
-        <v>353.00000000000051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>353.0000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="C14">
         <v>5.61</v>
@@ -10551,16 +10459,16 @@
         <v>0.7649999999999999</v>
       </c>
       <c r="F14">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G14">
-        <v>38.249999999997819</v>
+        <v>38.24999999999782</v>
       </c>
       <c r="H14">
-        <v>391.24999999999841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>391.2499999999984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10571,22 +10479,22 @@
         <v>8.4</v>
       </c>
       <c r="D15">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E15">
-        <v>0.96500000000000008</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="F15">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G15">
-        <v>48.250000000000689</v>
+        <v>48.25000000000069</v>
       </c>
       <c r="H15">
-        <v>439.49999999999898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439.499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10600,19 +10508,19 @@
         <v>0.89</v>
       </c>
       <c r="E16">
-        <v>0.99500000000000011</v>
+        <v>0.9950000000000001</v>
       </c>
       <c r="F16">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G16">
-        <v>49.750000000000711</v>
+        <v>49.75000000000071</v>
       </c>
       <c r="H16">
-        <v>489.24999999999977</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>489.2499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10623,27 +10531,27 @@
         <v>6.68</v>
       </c>
       <c r="D17">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E17">
-        <v>0.91500000000000004</v>
+        <v>0.915</v>
       </c>
       <c r="F17">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G17">
-        <v>45.750000000000647</v>
+        <v>45.75000000000065</v>
       </c>
       <c r="H17">
-        <v>535.00000000000045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>535.0000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="C18">
         <v>6.35</v>
@@ -10652,24 +10560,24 @@
         <v>0.91</v>
       </c>
       <c r="E18">
-        <v>0.92500000000000004</v>
+        <v>0.925</v>
       </c>
       <c r="F18">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G18">
-        <v>46.250000000000661</v>
+        <v>46.25000000000066</v>
       </c>
       <c r="H18">
-        <v>581.25000000000114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>581.2500000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="C19">
         <v>6.02</v>
@@ -10681,16 +10589,16 @@
         <v>0.89</v>
       </c>
       <c r="F19">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G19">
         <v>44.49999999999747</v>
       </c>
       <c r="H19">
-        <v>625.74999999999864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>625.7499999999986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10704,19 +10612,19 @@
         <v>0.84</v>
       </c>
       <c r="E20">
-        <v>0.85499999999999998</v>
+        <v>0.855</v>
       </c>
       <c r="F20">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G20">
-        <v>42.750000000000597</v>
+        <v>42.7500000000006</v>
       </c>
       <c r="H20">
         <v>668.4999999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10730,19 +10638,19 @@
         <v>0.93</v>
       </c>
       <c r="E21">
-        <v>0.88500000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="F21">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G21">
-        <v>44.250000000000632</v>
+        <v>44.25000000000063</v>
       </c>
       <c r="H21">
-        <v>712.74999999999989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>712.7499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10759,21 +10667,21 @@
         <v>0.95</v>
       </c>
       <c r="F22">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G22">
-        <v>47.500000000000682</v>
+        <v>47.50000000000068</v>
       </c>
       <c r="H22">
-        <v>760.25000000000057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>760.2500000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.850000000000001</v>
+        <v>18.85</v>
       </c>
       <c r="C23">
         <v>6.93</v>
@@ -10782,24 +10690,24 @@
         <v>0.96</v>
       </c>
       <c r="E23">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="F23">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G23">
-        <v>48.250000000000682</v>
+        <v>48.25000000000068</v>
       </c>
       <c r="H23">
-        <v>808.50000000000125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>808.5000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C24">
         <v>6.15</v>
@@ -10808,19 +10716,19 @@
         <v>0.88</v>
       </c>
       <c r="E24">
-        <v>0.91999999999999993</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F24">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G24">
-        <v>45.999999999997392</v>
+        <v>45.99999999999739</v>
       </c>
       <c r="H24">
-        <v>854.49999999999864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>854.4999999999986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10834,19 +10742,19 @@
         <v>0.96</v>
       </c>
       <c r="E25">
-        <v>0.91999999999999993</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F25">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G25">
-        <v>46.000000000000647</v>
+        <v>46.00000000000065</v>
       </c>
       <c r="H25">
-        <v>900.49999999999932</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>900.4999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10860,19 +10768,19 @@
         <v>0.97</v>
       </c>
       <c r="E26">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="F26">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G26">
-        <v>48.250000000000682</v>
+        <v>48.25000000000068</v>
       </c>
       <c r="H26">
         <v>948.75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10886,71 +10794,71 @@
         <v>1.04</v>
       </c>
       <c r="E27">
-        <v>1.0049999999999999</v>
+        <v>1.005</v>
       </c>
       <c r="F27">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G27">
-        <v>50.250000000000711</v>
+        <v>50.25000000000071</v>
       </c>
       <c r="H27">
-        <v>999.00000000000068</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>999.0000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="C28">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D28">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="E28">
-        <v>1.0649999999999999</v>
+        <v>1.065</v>
       </c>
       <c r="F28">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G28">
-        <v>53.250000000000753</v>
+        <v>53.25000000000075</v>
       </c>
       <c r="H28">
-        <v>1052.2500000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1052.250000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="C29">
         <v>8.66</v>
       </c>
       <c r="D29">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="E29">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="F29">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G29">
-        <v>55.499999999996838</v>
+        <v>55.49999999999684</v>
       </c>
       <c r="H29">
         <v>1107.749999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10958,25 +10866,25 @@
         <v>19.2</v>
       </c>
       <c r="C30">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D30">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="E30">
         <v>1.135</v>
       </c>
       <c r="F30">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G30">
-        <v>56.750000000000803</v>
+        <v>56.7500000000008</v>
       </c>
       <c r="H30">
-        <v>1164.4999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1164.499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10987,22 +10895,22 @@
         <v>8.93</v>
       </c>
       <c r="D31">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="E31">
         <v>1.145</v>
       </c>
       <c r="F31">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G31">
-        <v>57.250000000000817</v>
+        <v>57.25000000000082</v>
       </c>
       <c r="H31">
         <v>1221.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11013,74 +10921,74 @@
         <v>8.74</v>
       </c>
       <c r="D32">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="E32">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="F32">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G32">
-        <v>57.000000000000803</v>
+        <v>57.0000000000008</v>
       </c>
       <c r="H32">
-        <v>1278.7500000000009</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1278.750000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
       <c r="C33">
         <v>8.94</v>
       </c>
       <c r="D33">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="E33">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="F33">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G33">
-        <v>57.000000000000803</v>
+        <v>57.0000000000008</v>
       </c>
       <c r="H33">
         <v>1335.750000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="C34">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D34">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="E34">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="F34">
-        <v>49.999999999997158</v>
+        <v>49.99999999999716</v>
       </c>
       <c r="G34">
-        <v>57.499999999996717</v>
+        <v>57.49999999999672</v>
       </c>
       <c r="H34">
-        <v>1393.2499999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1393.249999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11088,7 +10996,7 @@
         <v>19.45</v>
       </c>
       <c r="C35">
-        <v>9.3699999999999992</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D35">
         <v>1.19</v>
@@ -11097,16 +11005,16 @@
         <v>1.17</v>
       </c>
       <c r="F35">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G35">
-        <v>58.500000000000817</v>
+        <v>58.50000000000082</v>
       </c>
       <c r="H35">
         <v>1451.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11114,25 +11022,25 @@
         <v>19.5</v>
       </c>
       <c r="C36">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D36">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E36">
         <v>1.175</v>
       </c>
       <c r="F36">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G36">
-        <v>58.750000000000817</v>
+        <v>58.75000000000082</v>
       </c>
       <c r="H36">
         <v>1510.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11143,22 +11051,22 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E37">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F37">
-        <v>50.000000000000711</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="G37">
-        <v>58.000000000000817</v>
+        <v>58.00000000000082</v>
       </c>
       <c r="H37">
-        <v>1568.5000000000009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1568.500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11166,19 +11074,19 @@
         <v>19.59</v>
       </c>
       <c r="C38">
-        <v>8.9700000000000006</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D38">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E38">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F38">
-        <v>39.999999999999147</v>
+        <v>39.99999999999915</v>
       </c>
       <c r="G38">
-        <v>46.399999999999011</v>
+        <v>46.39999999999901</v>
       </c>
       <c r="H38">
         <v>1614.9</v>
@@ -11190,14 +11098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -11220,7 +11128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11246,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11260,10 +11168,10 @@
         <v>1.86</v>
       </c>
       <c r="E3">
-        <v>1.6950000000000001</v>
+        <v>1.695</v>
       </c>
       <c r="F3">
-        <v>147.99999999999969</v>
+        <v>147.9999999999997</v>
       </c>
       <c r="G3">
         <v>250.8599999999995</v>
@@ -11272,7 +11180,7 @@
         <v>250.8599999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11289,16 +11197,16 @@
         <v>2.1</v>
       </c>
       <c r="F4">
-        <v>91.999999999998749</v>
+        <v>91.99999999999875</v>
       </c>
       <c r="G4">
         <v>193.1999999999974</v>
       </c>
       <c r="H4">
-        <v>444.05999999999688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>444.0599999999969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11312,16 +11220,16 @@
         <v>2.35</v>
       </c>
       <c r="E5">
-        <v>2.3450000000000002</v>
+        <v>2.345</v>
       </c>
       <c r="F5">
-        <v>42.000000000001592</v>
+        <v>42.00000000000159</v>
       </c>
       <c r="G5">
-        <v>98.490000000003718</v>
+        <v>98.49000000000372</v>
       </c>
       <c r="H5">
-        <v>542.55000000000064</v>
+        <v>542.5500000000006</v>
       </c>
     </row>
   </sheetData>
